--- a/Analyslista.xlsx
+++ b/Analyslista.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33M4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Code/methodlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="45820" windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Analyslista" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Analyslista!$D$1:$D$474</definedName>
     <definedName name="Komponenter">Analyslista!$AJ$2:INDEX(INDIRECT("KemLab!$U$2:$U"&amp;Analyslista!$AK$2),MAX(INDIRECT("KemLab!$T$2:$T"&amp;Analyslista!$AK$2)),1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -10535,9 +10541,6 @@
     <t>X748</t>
   </si>
   <si>
-    <t>Amyloidrypning</t>
-  </si>
-  <si>
     <t>Bukfettsbiopsi för amyloidtypning</t>
   </si>
   <si>
@@ -10575,6 +10578,9 @@
   </si>
   <si>
     <t>http://www.labhandbok.se/findny.asp?State=2&amp;Analysid=841</t>
+  </si>
+  <si>
+    <t>Amyloidtypning</t>
   </si>
 </sst>
 </file>
@@ -10813,42 +10819,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11279,38 +11285,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Dekorfärg1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="5"/>
-    <cellStyle name="Hyperlänk" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED3F3F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -11900,6 +11882,30 @@
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED3F3F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -11914,46 +11920,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Metoder" displayName="Metoder" ref="A1:AH474" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Metoder" displayName="Metoder" ref="A1:AH474" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36" headerRowCellStyle="Normal">
   <autoFilter ref="A1:AH474"/>
   <sortState ref="A2:T459">
     <sortCondition ref="B1:B459"/>
   </sortState>
   <tableColumns count="34">
-    <tableColumn id="18" name="ID" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="1" name="Komponent" totalsRowLabel="Summa" dataDxfId="36"/>
-    <tableColumn id="10" name="Alternativa Sökord" dataDxfId="35" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="System" dataDxfId="34"/>
-    <tableColumn id="14" name="Remisstext" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" name="Remisslänk" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" name="Anges på remiss" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Provtagning/Provtagningsmaterial" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Kommentar/Viktigt att veta" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" name="Specialitet" dataDxfId="28"/>
-    <tableColumn id="13" name="Klass" dataDxfId="27"/>
-    <tableColumn id="3" name="Rörfärg" dataDxfId="26"/>
-    <tableColumn id="26" name="Dos" dataDxfId="25"/>
-    <tableColumn id="25" name="Ljus" dataDxfId="24"/>
-    <tableColumn id="24" name="Mat" dataDxfId="23"/>
-    <tableColumn id="23" name="Is" dataDxfId="22"/>
-    <tableColumn id="17" name="Tid" dataDxfId="21"/>
-    <tableColumn id="9" name="Laboratoriet tillhanda" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="27" name="Lämnas till" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="34" name="Analyserande laboratorium" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" name="Provhantering" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="Förvaring, hållbarhet och transport" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" name="Referensintervall" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="28" name="Metod och analysprincip" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="29" name="Indikation/Tolkning" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="30" name="Metodansvarig läkare" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" name="Ackrediterad" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="31" name="Biobank" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" name="Skickas till" totalsRowFunction="count" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="12" name="Informationskälla" dataDxfId="8" dataCellStyle="Hyperlink 2"/>
-    <tableColumn id="33" name="Svarstid" dataDxfId="7" dataCellStyle="20% - Dekorfärg1"/>
-    <tableColumn id="32" name="Akut/Rutin" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="20% - Dekorfärg1"/>
-    <tableColumn id="20" name="Uppdaterad" dataDxfId="4" dataCellStyle="Hyperlänk"/>
-    <tableColumn id="19" name="Sign." dataDxfId="3"/>
+    <tableColumn id="18" name="ID" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="1" name="Komponent" totalsRowLabel="Summa" dataDxfId="33"/>
+    <tableColumn id="10" name="Alternativa Sökord" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="System" dataDxfId="31"/>
+    <tableColumn id="14" name="Remisstext" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" name="Remisslänk" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" name="Anges på remiss" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Provtagning/Provtagningsmaterial" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Kommentar/Viktigt att veta" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" name="Specialitet" dataDxfId="25"/>
+    <tableColumn id="13" name="Klass" dataDxfId="24"/>
+    <tableColumn id="3" name="Rörfärg" dataDxfId="23"/>
+    <tableColumn id="26" name="Dos" dataDxfId="22"/>
+    <tableColumn id="25" name="Ljus" dataDxfId="21"/>
+    <tableColumn id="24" name="Mat" dataDxfId="20"/>
+    <tableColumn id="23" name="Is" dataDxfId="19"/>
+    <tableColumn id="17" name="Tid" dataDxfId="18"/>
+    <tableColumn id="9" name="Laboratoriet tillhanda" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="27" name="Lämnas till" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="34" name="Analyserande laboratorium" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" name="Provhantering" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="Förvaring, hållbarhet och transport" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" name="Referensintervall" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="28" name="Metod och analysprincip" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="29" name="Indikation/Tolkning" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="30" name="Metodansvarig läkare" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" name="Ackrediterad" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="31" name="Biobank" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" name="Skickas till" totalsRowFunction="count" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="12" name="Informationskälla" dataDxfId="5" dataCellStyle="Hyperlink 2"/>
+    <tableColumn id="33" name="Svarstid" dataDxfId="4"/>
+    <tableColumn id="32" name="Akut/Rutin" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="20" name="Uppdaterad" dataDxfId="1"/>
+    <tableColumn id="19" name="Sign." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12222,59 +12228,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Blad3">
+  <sheetPr codeName="Blad3" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFE82424"/>
   </sheetPr>
   <dimension ref="A1:AM486"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C473" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C471" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G474" sqref="G474"/>
+      <selection pane="bottomRight" activeCell="D481" sqref="D481"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="115" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="116" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="117" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="115" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="117" customWidth="1"/>
     <col min="5" max="5" width="15" style="118" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="119" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="120" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="120" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="120" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="121" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="121" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="119" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="120" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="120" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="120" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="121" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="121" customWidth="1"/>
     <col min="13" max="13" width="7" style="116" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="116" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="122" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="123" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="124" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="116" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="122" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="123" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="124" customWidth="1"/>
     <col min="18" max="18" width="14" style="116" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" style="116" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" style="116" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" style="116" customWidth="1"/>
-    <col min="23" max="26" width="18.42578125" style="116" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="116" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" style="72" customWidth="1"/>
-    <col min="30" max="30" width="25.85546875" style="125" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" style="126" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="127" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.5" style="116" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" style="116" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" style="116" customWidth="1"/>
+    <col min="23" max="26" width="18.5" style="116" customWidth="1"/>
+    <col min="27" max="28" width="14.6640625" style="116" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" style="72" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" style="125" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" style="126" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="127" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="127" customWidth="1"/>
     <col min="34" max="34" width="6" style="127" customWidth="1"/>
-    <col min="35" max="35" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="72" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.1640625" style="72" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4" style="70" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="17" style="71" customWidth="1"/>
-    <col min="39" max="39" width="4.7109375" style="72" customWidth="1"/>
-    <col min="40" max="51" width="10.85546875" style="72" customWidth="1"/>
-    <col min="52" max="16384" width="8.85546875" style="72"/>
+    <col min="39" max="39" width="4.6640625" style="72" customWidth="1"/>
+    <col min="40" max="51" width="10.83203125" style="72" customWidth="1"/>
+    <col min="52" max="16384" width="8.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12395,7 +12401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -12466,7 +12472,7 @@
       <c r="AL2" s="33"/>
       <c r="AM2" s="34"/>
     </row>
-    <row r="3" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -12540,7 +12546,7 @@
       <c r="AK3" s="32"/>
       <c r="AL3" s="33"/>
     </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -12610,7 +12616,7 @@
       <c r="AK4" s="32"/>
       <c r="AL4" s="33"/>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
@@ -12682,7 +12688,7 @@
       <c r="AK5" s="32"/>
       <c r="AL5" s="33"/>
     </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -12754,7 +12760,7 @@
       <c r="AK6" s="32"/>
       <c r="AL6" s="33"/>
     </row>
-    <row r="7" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>88</v>
       </c>
@@ -12832,7 +12838,7 @@
       <c r="AK7" s="32"/>
       <c r="AL7" s="33"/>
     </row>
-    <row r="8" spans="1:39" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -12908,7 +12914,7 @@
       <c r="AK8" s="32"/>
       <c r="AL8" s="33"/>
     </row>
-    <row r="9" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>116</v>
       </c>
@@ -12984,7 +12990,7 @@
       <c r="AK9" s="32"/>
       <c r="AL9" s="33"/>
     </row>
-    <row r="10" spans="1:39" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>127</v>
       </c>
@@ -13056,7 +13062,7 @@
       <c r="AK10" s="32"/>
       <c r="AL10" s="33"/>
     </row>
-    <row r="11" spans="1:39" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="3" customFormat="1" ht="121" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
@@ -13130,7 +13136,7 @@
       <c r="AK11" s="57"/>
       <c r="AL11" s="33"/>
     </row>
-    <row r="12" spans="1:39" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
@@ -13210,7 +13216,7 @@
       <c r="AK12" s="57"/>
       <c r="AL12" s="33"/>
     </row>
-    <row r="13" spans="1:39" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="3" customFormat="1" ht="77" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -13290,7 +13296,7 @@
       <c r="AK13" s="57"/>
       <c r="AL13" s="33"/>
     </row>
-    <row r="14" spans="1:39" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>163</v>
       </c>
@@ -13346,7 +13352,7 @@
       <c r="AK14" s="57"/>
       <c r="AL14" s="33"/>
     </row>
-    <row r="15" spans="1:39" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>166</v>
       </c>
@@ -13422,7 +13428,7 @@
       <c r="AK15" s="57"/>
       <c r="AL15" s="33"/>
     </row>
-    <row r="16" spans="1:39" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>179</v>
       </c>
@@ -13476,7 +13482,7 @@
       <c r="AK16" s="57"/>
       <c r="AL16" s="33"/>
     </row>
-    <row r="17" spans="1:38" s="3" customFormat="1" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>182</v>
       </c>
@@ -13554,7 +13560,7 @@
       <c r="AK17" s="57"/>
       <c r="AL17" s="33"/>
     </row>
-    <row r="18" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>190</v>
       </c>
@@ -13624,7 +13630,7 @@
       <c r="AK18" s="57"/>
       <c r="AL18" s="33"/>
     </row>
-    <row r="19" spans="1:38" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>197</v>
       </c>
@@ -13696,7 +13702,7 @@
       <c r="AK19" s="57"/>
       <c r="AL19" s="33"/>
     </row>
-    <row r="20" spans="1:38" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>206</v>
       </c>
@@ -13768,7 +13774,7 @@
       <c r="AK20" s="57"/>
       <c r="AL20" s="33"/>
     </row>
-    <row r="21" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>213</v>
       </c>
@@ -13838,7 +13844,7 @@
       <c r="AK21" s="57"/>
       <c r="AL21" s="33"/>
     </row>
-    <row r="22" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>218</v>
       </c>
@@ -13910,7 +13916,7 @@
       <c r="AK22" s="57"/>
       <c r="AL22" s="33"/>
     </row>
-    <row r="23" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>226</v>
       </c>
@@ -13976,7 +13982,7 @@
       <c r="AK23" s="57"/>
       <c r="AL23" s="33"/>
     </row>
-    <row r="24" spans="1:38" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>231</v>
       </c>
@@ -14032,7 +14038,7 @@
       <c r="AK24" s="57"/>
       <c r="AL24" s="33"/>
     </row>
-    <row r="25" spans="1:38" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>236</v>
       </c>
@@ -14102,7 +14108,7 @@
       <c r="AK25" s="57"/>
       <c r="AL25" s="33"/>
     </row>
-    <row r="26" spans="1:38" s="3" customFormat="1" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" s="3" customFormat="1" ht="143" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>241</v>
       </c>
@@ -14174,7 +14180,7 @@
       <c r="AK26" s="57"/>
       <c r="AL26" s="33"/>
     </row>
-    <row r="27" spans="1:38" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" s="3" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -14246,7 +14252,7 @@
       <c r="AK27" s="57"/>
       <c r="AL27" s="33"/>
     </row>
-    <row r="28" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>262</v>
       </c>
@@ -14316,7 +14322,7 @@
       <c r="AK28" s="57"/>
       <c r="AL28" s="33"/>
     </row>
-    <row r="29" spans="1:38" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>269</v>
       </c>
@@ -14388,7 +14394,7 @@
       <c r="AK29" s="57"/>
       <c r="AL29" s="33"/>
     </row>
-    <row r="30" spans="1:38" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>275</v>
       </c>
@@ -14460,7 +14466,7 @@
       <c r="AK30" s="57"/>
       <c r="AL30" s="33"/>
     </row>
-    <row r="31" spans="1:38" s="3" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" s="3" customFormat="1" ht="77" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>284</v>
       </c>
@@ -14536,7 +14542,7 @@
       <c r="AK31" s="57"/>
       <c r="AL31" s="33"/>
     </row>
-    <row r="32" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>292</v>
       </c>
@@ -14610,7 +14616,7 @@
       <c r="AK32" s="57"/>
       <c r="AL32" s="33"/>
     </row>
-    <row r="33" spans="1:38" s="3" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>301</v>
       </c>
@@ -14684,7 +14690,7 @@
       <c r="AK33" s="57"/>
       <c r="AL33" s="33"/>
     </row>
-    <row r="34" spans="1:38" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>313</v>
       </c>
@@ -14736,7 +14742,7 @@
       <c r="AK34" s="57"/>
       <c r="AL34" s="33"/>
     </row>
-    <row r="35" spans="1:38" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>316</v>
       </c>
@@ -14802,7 +14808,7 @@
       <c r="AK35" s="57"/>
       <c r="AL35" s="33"/>
     </row>
-    <row r="36" spans="1:38" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>321</v>
       </c>
@@ -14868,7 +14874,7 @@
       <c r="AK36" s="57"/>
       <c r="AL36" s="33"/>
     </row>
-    <row r="37" spans="1:38" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>325</v>
       </c>
@@ -14936,7 +14942,7 @@
       <c r="AK37" s="57"/>
       <c r="AL37" s="33"/>
     </row>
-    <row r="38" spans="1:38" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" s="3" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>330</v>
       </c>
@@ -15004,7 +15010,7 @@
       <c r="AK38" s="57"/>
       <c r="AL38" s="33"/>
     </row>
-    <row r="39" spans="1:38" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" s="3" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>336</v>
       </c>
@@ -15070,7 +15076,7 @@
       <c r="AK39" s="57"/>
       <c r="AL39" s="33"/>
     </row>
-    <row r="40" spans="1:38" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>343</v>
       </c>
@@ -15142,7 +15148,7 @@
       <c r="AK40" s="57"/>
       <c r="AL40" s="33"/>
     </row>
-    <row r="41" spans="1:38" s="3" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" s="3" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>349</v>
       </c>
@@ -15214,7 +15220,7 @@
       <c r="AK41" s="57"/>
       <c r="AL41" s="33"/>
     </row>
-    <row r="42" spans="1:38" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" s="3" customFormat="1" ht="154" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>351</v>
       </c>
@@ -15294,7 +15300,7 @@
       <c r="AK42" s="57"/>
       <c r="AL42" s="33"/>
     </row>
-    <row r="43" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>359</v>
       </c>
@@ -15364,7 +15370,7 @@
       <c r="AK43" s="57"/>
       <c r="AL43" s="33"/>
     </row>
-    <row r="44" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>365</v>
       </c>
@@ -15438,7 +15444,7 @@
       <c r="AK44" s="57"/>
       <c r="AL44" s="33"/>
     </row>
-    <row r="45" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>372</v>
       </c>
@@ -15508,7 +15514,7 @@
       <c r="AK45" s="57"/>
       <c r="AL45" s="33"/>
     </row>
-    <row r="46" spans="1:38" s="3" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>381</v>
       </c>
@@ -15584,7 +15590,7 @@
       <c r="AK46" s="57"/>
       <c r="AL46" s="33"/>
     </row>
-    <row r="47" spans="1:38" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" s="3" customFormat="1" ht="77" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>390</v>
       </c>
@@ -15664,7 +15670,7 @@
       <c r="AK47" s="57"/>
       <c r="AL47" s="33"/>
     </row>
-    <row r="48" spans="1:38" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>399</v>
       </c>
@@ -15736,7 +15742,7 @@
       <c r="AK48" s="57"/>
       <c r="AL48" s="33"/>
     </row>
-    <row r="49" spans="1:38" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>405</v>
       </c>
@@ -15810,7 +15816,7 @@
       <c r="AK49" s="57"/>
       <c r="AL49" s="33"/>
     </row>
-    <row r="50" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>416</v>
       </c>
@@ -15878,7 +15884,7 @@
       <c r="AK50" s="57"/>
       <c r="AL50" s="33"/>
     </row>
-    <row r="51" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>421</v>
       </c>
@@ -15950,7 +15956,7 @@
       <c r="AK51" s="57"/>
       <c r="AL51" s="33"/>
     </row>
-    <row r="52" spans="1:38" s="3" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>428</v>
       </c>
@@ -16022,7 +16028,7 @@
       <c r="AK52" s="57"/>
       <c r="AL52" s="33"/>
     </row>
-    <row r="53" spans="1:38" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" s="3" customFormat="1" ht="77" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>435</v>
       </c>
@@ -16092,7 +16098,7 @@
       <c r="AK53" s="57"/>
       <c r="AL53" s="33"/>
     </row>
-    <row r="54" spans="1:38" s="3" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>445</v>
       </c>
@@ -16162,7 +16168,7 @@
       <c r="AK54" s="57"/>
       <c r="AL54" s="33"/>
     </row>
-    <row r="55" spans="1:38" s="3" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" s="3" customFormat="1" ht="154" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>454</v>
       </c>
@@ -16236,7 +16242,7 @@
       <c r="AK55" s="57"/>
       <c r="AL55" s="33"/>
     </row>
-    <row r="56" spans="1:38" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>464</v>
       </c>
@@ -16308,7 +16314,7 @@
       <c r="AK56" s="57"/>
       <c r="AL56" s="33"/>
     </row>
-    <row r="57" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>471</v>
       </c>
@@ -16376,7 +16382,7 @@
       <c r="AK57" s="57"/>
       <c r="AL57" s="33"/>
     </row>
-    <row r="58" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>477</v>
       </c>
@@ -16450,7 +16456,7 @@
       <c r="AK58" s="57"/>
       <c r="AL58" s="33"/>
     </row>
-    <row r="59" spans="1:38" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>482</v>
       </c>
@@ -16522,7 +16528,7 @@
       <c r="AK59" s="57"/>
       <c r="AL59" s="33"/>
     </row>
-    <row r="60" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>490</v>
       </c>
@@ -16574,7 +16580,7 @@
       <c r="AK60" s="57"/>
       <c r="AL60" s="33"/>
     </row>
-    <row r="61" spans="1:38" s="3" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" s="3" customFormat="1" ht="121" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>493</v>
       </c>
@@ -16648,7 +16654,7 @@
       <c r="AK61" s="57"/>
       <c r="AL61" s="33"/>
     </row>
-    <row r="62" spans="1:38" s="3" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" s="3" customFormat="1" ht="88" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>501</v>
       </c>
@@ -16718,7 +16724,7 @@
       <c r="AK62" s="57"/>
       <c r="AL62" s="33"/>
     </row>
-    <row r="63" spans="1:38" s="3" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" s="3" customFormat="1" ht="55" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>508</v>
       </c>
@@ -16790,7 +16796,7 @@
       <c r="AK63" s="57"/>
       <c r="AL63" s="33"/>
     </row>
-    <row r="64" spans="1:38" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>517</v>
       </c>
@@ -16860,7 +16866,7 @@
       <c r="AK64" s="57"/>
       <c r="AL64" s="33"/>
     </row>
-    <row r="65" spans="1:38" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>521</v>
       </c>
@@ -16916,7 +16922,7 @@
       <c r="AK65" s="57"/>
       <c r="AL65" s="33"/>
     </row>
-    <row r="66" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="44" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>523</v>
       </c>
@@ -16988,7 +16994,7 @@
       <c r="AI66" s="30"/>
       <c r="AJ66" s="31"/>
     </row>
-    <row r="67" spans="1:38" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="88" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>528</v>
       </c>
@@ -17060,7 +17066,7 @@
       <c r="AI67" s="30"/>
       <c r="AJ67" s="31"/>
     </row>
-    <row r="68" spans="1:38" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="88" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>540</v>
       </c>
@@ -17128,7 +17134,7 @@
       <c r="AI68" s="30"/>
       <c r="AJ68" s="31"/>
     </row>
-    <row r="69" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="44" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>544</v>
       </c>
@@ -17200,7 +17206,7 @@
       <c r="AI69" s="30"/>
       <c r="AJ69" s="31"/>
     </row>
-    <row r="70" spans="1:38" ht="225" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="154" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>552</v>
       </c>
@@ -17262,7 +17268,7 @@
       <c r="AI70" s="30"/>
       <c r="AJ70" s="31"/>
     </row>
-    <row r="71" spans="1:38" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="77" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>559</v>
       </c>
@@ -17332,7 +17338,7 @@
       <c r="AI71" s="30"/>
       <c r="AJ71" s="31"/>
     </row>
-    <row r="72" spans="1:38" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="88" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>567</v>
       </c>
@@ -17396,7 +17402,7 @@
       <c r="AI72" s="30"/>
       <c r="AJ72" s="31"/>
     </row>
-    <row r="73" spans="1:38" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="66" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>571</v>
       </c>
@@ -17466,7 +17472,7 @@
       <c r="AI73" s="30"/>
       <c r="AJ73" s="31"/>
     </row>
-    <row r="74" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="44" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>580</v>
       </c>
@@ -17534,7 +17540,7 @@
       <c r="AI74" s="30"/>
       <c r="AJ74" s="31"/>
     </row>
-    <row r="75" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="33" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>586</v>
       </c>
@@ -17598,7 +17604,7 @@
       <c r="AI75" s="30"/>
       <c r="AJ75" s="31"/>
     </row>
-    <row r="76" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="55" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>594</v>
       </c>
@@ -17670,7 +17676,7 @@
       <c r="AI76" s="30"/>
       <c r="AJ76" s="31"/>
     </row>
-    <row r="77" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="55" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>601</v>
       </c>
@@ -17740,7 +17746,7 @@
       <c r="AI77" s="30"/>
       <c r="AJ77" s="31"/>
     </row>
-    <row r="78" spans="1:38" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="55" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>606</v>
       </c>
@@ -17812,7 +17818,7 @@
       <c r="AI78" s="30"/>
       <c r="AJ78" s="31"/>
     </row>
-    <row r="79" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="22" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>610</v>
       </c>
@@ -17880,7 +17886,7 @@
       <c r="AI79" s="30"/>
       <c r="AJ79" s="31"/>
     </row>
-    <row r="80" spans="1:38" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="55" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>618</v>
       </c>
@@ -17948,7 +17954,7 @@
       <c r="AI80" s="30"/>
       <c r="AJ80" s="31"/>
     </row>
-    <row r="81" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>624</v>
       </c>
@@ -18016,7 +18022,7 @@
       <c r="AI81" s="30"/>
       <c r="AJ81" s="31"/>
     </row>
-    <row r="82" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>632</v>
       </c>
@@ -18084,7 +18090,7 @@
       <c r="AI82" s="30"/>
       <c r="AJ82" s="31"/>
     </row>
-    <row r="83" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>639</v>
       </c>
@@ -18156,7 +18162,7 @@
       <c r="AI83" s="30"/>
       <c r="AJ83" s="31"/>
     </row>
-    <row r="84" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>649</v>
       </c>
@@ -18224,7 +18230,7 @@
       <c r="AI84" s="30"/>
       <c r="AJ84" s="31"/>
     </row>
-    <row r="85" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>654</v>
       </c>
@@ -18276,7 +18282,7 @@
       <c r="AI85" s="30"/>
       <c r="AJ85" s="31"/>
     </row>
-    <row r="86" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>658</v>
       </c>
@@ -18352,7 +18358,7 @@
       <c r="AI86" s="30"/>
       <c r="AJ86" s="31"/>
     </row>
-    <row r="87" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>666</v>
       </c>
@@ -18426,7 +18432,7 @@
       <c r="AI87" s="30"/>
       <c r="AJ87" s="31"/>
     </row>
-    <row r="88" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>675</v>
       </c>
@@ -18498,7 +18504,7 @@
       <c r="AI88" s="30"/>
       <c r="AJ88" s="31"/>
     </row>
-    <row r="89" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>682</v>
       </c>
@@ -18570,7 +18576,7 @@
       <c r="AI89" s="30"/>
       <c r="AJ89" s="31"/>
     </row>
-    <row r="90" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>690</v>
       </c>
@@ -18622,7 +18628,7 @@
       <c r="AI90" s="30"/>
       <c r="AJ90" s="31"/>
     </row>
-    <row r="91" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>694</v>
       </c>
@@ -18690,7 +18696,7 @@
       <c r="AI91" s="30"/>
       <c r="AJ91" s="31"/>
     </row>
-    <row r="92" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>702</v>
       </c>
@@ -18760,7 +18766,7 @@
       <c r="AI92" s="30"/>
       <c r="AJ92" s="31"/>
     </row>
-    <row r="93" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>707</v>
       </c>
@@ -18822,7 +18828,7 @@
       <c r="AI93" s="30"/>
       <c r="AJ93" s="31"/>
     </row>
-    <row r="94" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>713</v>
       </c>
@@ -18892,7 +18898,7 @@
       <c r="AI94" s="30"/>
       <c r="AJ94" s="31"/>
     </row>
-    <row r="95" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>719</v>
       </c>
@@ -18970,7 +18976,7 @@
       <c r="AI95" s="30"/>
       <c r="AJ95" s="31"/>
     </row>
-    <row r="96" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>726</v>
       </c>
@@ -19040,7 +19046,7 @@
       <c r="AI96" s="30"/>
       <c r="AJ96" s="31"/>
     </row>
-    <row r="97" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>733</v>
       </c>
@@ -19092,7 +19098,7 @@
       <c r="AI97" s="30"/>
       <c r="AJ97" s="31"/>
     </row>
-    <row r="98" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>736</v>
       </c>
@@ -19162,7 +19168,7 @@
       <c r="AI98" s="30"/>
       <c r="AJ98" s="31"/>
     </row>
-    <row r="99" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>742</v>
       </c>
@@ -19212,7 +19218,7 @@
       <c r="AI99" s="30"/>
       <c r="AJ99" s="31"/>
     </row>
-    <row r="100" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>745</v>
       </c>
@@ -19282,7 +19288,7 @@
       <c r="AI100" s="30"/>
       <c r="AJ100" s="31"/>
     </row>
-    <row r="101" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>753</v>
       </c>
@@ -19356,7 +19362,7 @@
       <c r="AI101" s="30"/>
       <c r="AJ101" s="31"/>
     </row>
-    <row r="102" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>759</v>
       </c>
@@ -19434,7 +19440,7 @@
       <c r="AI102" s="30"/>
       <c r="AJ102" s="31"/>
     </row>
-    <row r="103" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>766</v>
       </c>
@@ -19500,7 +19506,7 @@
       <c r="AI103" s="30"/>
       <c r="AJ103" s="31"/>
     </row>
-    <row r="104" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>773</v>
       </c>
@@ -19570,7 +19576,7 @@
       <c r="AI104" s="30"/>
       <c r="AJ104" s="31"/>
     </row>
-    <row r="105" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>780</v>
       </c>
@@ -19640,7 +19646,7 @@
       <c r="AI105" s="30"/>
       <c r="AJ105" s="31"/>
     </row>
-    <row r="106" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>784</v>
       </c>
@@ -19708,7 +19714,7 @@
       <c r="AI106" s="30"/>
       <c r="AJ106" s="31"/>
     </row>
-    <row r="107" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>789</v>
       </c>
@@ -19776,7 +19782,7 @@
       <c r="AI107" s="30"/>
       <c r="AJ107" s="31"/>
     </row>
-    <row r="108" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>798</v>
       </c>
@@ -19842,7 +19848,7 @@
       <c r="AI108" s="30"/>
       <c r="AJ108" s="31"/>
     </row>
-    <row r="109" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>803</v>
       </c>
@@ -19916,7 +19922,7 @@
       <c r="AI109" s="30"/>
       <c r="AJ109" s="31"/>
     </row>
-    <row r="110" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>811</v>
       </c>
@@ -19986,7 +19992,7 @@
       <c r="AI110" s="30"/>
       <c r="AJ110" s="31"/>
     </row>
-    <row r="111" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>816</v>
       </c>
@@ -20060,7 +20066,7 @@
       <c r="AI111" s="30"/>
       <c r="AJ111" s="31"/>
     </row>
-    <row r="112" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>823</v>
       </c>
@@ -20130,7 +20136,7 @@
       <c r="AI112" s="30"/>
       <c r="AJ112" s="31"/>
     </row>
-    <row r="113" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>828</v>
       </c>
@@ -20204,7 +20210,7 @@
       <c r="AI113" s="30"/>
       <c r="AJ113" s="31"/>
     </row>
-    <row r="114" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>837</v>
       </c>
@@ -20272,7 +20278,7 @@
       <c r="AI114" s="30"/>
       <c r="AJ114" s="31"/>
     </row>
-    <row r="115" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>846</v>
       </c>
@@ -20322,7 +20328,7 @@
       <c r="AI115" s="30"/>
       <c r="AJ115" s="31"/>
     </row>
-    <row r="116" spans="1:36" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>849</v>
       </c>
@@ -20394,7 +20400,7 @@
       <c r="AI116" s="30"/>
       <c r="AJ116" s="31"/>
     </row>
-    <row r="117" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>862</v>
       </c>
@@ -20444,7 +20450,7 @@
       <c r="AI117" s="30"/>
       <c r="AJ117" s="31"/>
     </row>
-    <row r="118" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>865</v>
       </c>
@@ -20508,7 +20514,7 @@
       <c r="AI118" s="30"/>
       <c r="AJ118" s="31"/>
     </row>
-    <row r="119" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>871</v>
       </c>
@@ -20584,7 +20590,7 @@
       <c r="AI119" s="30"/>
       <c r="AJ119" s="31"/>
     </row>
-    <row r="120" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>879</v>
       </c>
@@ -20654,7 +20660,7 @@
       <c r="AI120" s="30"/>
       <c r="AJ120" s="31"/>
     </row>
-    <row r="121" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>886</v>
       </c>
@@ -20722,7 +20728,7 @@
       <c r="AI121" s="30"/>
       <c r="AJ121" s="31"/>
     </row>
-    <row r="122" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>894</v>
       </c>
@@ -20792,7 +20798,7 @@
       <c r="AI122" s="30"/>
       <c r="AJ122" s="31"/>
     </row>
-    <row r="123" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>900</v>
       </c>
@@ -20862,7 +20868,7 @@
       <c r="AI123" s="30"/>
       <c r="AJ123" s="31"/>
     </row>
-    <row r="124" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>905</v>
       </c>
@@ -20932,7 +20938,7 @@
       <c r="AI124" s="30"/>
       <c r="AJ124" s="31"/>
     </row>
-    <row r="125" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -21004,7 +21010,7 @@
       <c r="AI125" s="30"/>
       <c r="AJ125" s="31"/>
     </row>
-    <row r="126" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>918</v>
       </c>
@@ -21070,7 +21076,7 @@
       <c r="AI126" s="30"/>
       <c r="AJ126" s="31"/>
     </row>
-    <row r="127" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>924</v>
       </c>
@@ -21134,7 +21140,7 @@
       <c r="AI127" s="30"/>
       <c r="AJ127" s="31"/>
     </row>
-    <row r="128" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>930</v>
       </c>
@@ -21208,7 +21214,7 @@
       <c r="AI128" s="30"/>
       <c r="AJ128" s="31"/>
     </row>
-    <row r="129" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>937</v>
       </c>
@@ -21280,7 +21286,7 @@
       <c r="AI129" s="30"/>
       <c r="AJ129" s="31"/>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>942</v>
       </c>
@@ -21330,7 +21336,7 @@
       <c r="AI130" s="30"/>
       <c r="AJ130" s="31"/>
     </row>
-    <row r="131" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>945</v>
       </c>
@@ -21406,7 +21412,7 @@
       <c r="AI131" s="30"/>
       <c r="AJ131" s="31"/>
     </row>
-    <row r="132" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>954</v>
       </c>
@@ -21484,7 +21490,7 @@
       <c r="AI132" s="30"/>
       <c r="AJ132" s="31"/>
     </row>
-    <row r="133" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>960</v>
       </c>
@@ -21560,7 +21566,7 @@
       <c r="AI133" s="30"/>
       <c r="AJ133" s="31"/>
     </row>
-    <row r="134" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>965</v>
       </c>
@@ -21634,7 +21640,7 @@
       <c r="AI134" s="30"/>
       <c r="AJ134" s="31"/>
     </row>
-    <row r="135" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>971</v>
       </c>
@@ -21710,7 +21716,7 @@
       <c r="AI135" s="30"/>
       <c r="AJ135" s="31"/>
     </row>
-    <row r="136" spans="1:36" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="132" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>976</v>
       </c>
@@ -21784,7 +21790,7 @@
       <c r="AI136" s="30"/>
       <c r="AJ136" s="31"/>
     </row>
-    <row r="137" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>983</v>
       </c>
@@ -21860,7 +21866,7 @@
       <c r="AI137" s="30"/>
       <c r="AJ137" s="31"/>
     </row>
-    <row r="138" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>987</v>
       </c>
@@ -21936,7 +21942,7 @@
       <c r="AI138" s="30"/>
       <c r="AJ138" s="31"/>
     </row>
-    <row r="139" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>994</v>
       </c>
@@ -22012,7 +22018,7 @@
       <c r="AI139" s="30"/>
       <c r="AJ139" s="31"/>
     </row>
-    <row r="140" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>999</v>
       </c>
@@ -22088,7 +22094,7 @@
       <c r="AI140" s="30"/>
       <c r="AJ140" s="31"/>
     </row>
-    <row r="141" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>1004</v>
       </c>
@@ -22164,7 +22170,7 @@
       <c r="AI141" s="30"/>
       <c r="AJ141" s="31"/>
     </row>
-    <row r="142" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>1009</v>
       </c>
@@ -22238,7 +22244,7 @@
       <c r="AI142" s="30"/>
       <c r="AJ142" s="31"/>
     </row>
-    <row r="143" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>1014</v>
       </c>
@@ -22310,7 +22316,7 @@
       <c r="AI143" s="30"/>
       <c r="AJ143" s="31"/>
     </row>
-    <row r="144" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>1023</v>
       </c>
@@ -22378,7 +22384,7 @@
       <c r="AI144" s="30"/>
       <c r="AJ144" s="31"/>
     </row>
-    <row r="145" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>1030</v>
       </c>
@@ -22450,7 +22456,7 @@
       <c r="AI145" s="30"/>
       <c r="AJ145" s="31"/>
     </row>
-    <row r="146" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>1038</v>
       </c>
@@ -22520,7 +22526,7 @@
       <c r="AI146" s="30"/>
       <c r="AJ146" s="31"/>
     </row>
-    <row r="147" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="75" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>1044</v>
       </c>
@@ -22586,7 +22592,7 @@
       <c r="AI147" s="30"/>
       <c r="AJ147" s="31"/>
     </row>
-    <row r="148" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>1051</v>
       </c>
@@ -22656,7 +22662,7 @@
       <c r="AI148" s="30"/>
       <c r="AJ148" s="31"/>
     </row>
-    <row r="149" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>1059</v>
       </c>
@@ -22728,7 +22734,7 @@
       <c r="AI149" s="30"/>
       <c r="AJ149" s="31"/>
     </row>
-    <row r="150" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>1063</v>
       </c>
@@ -22800,7 +22806,7 @@
       <c r="AI150" s="30"/>
       <c r="AJ150" s="31"/>
     </row>
-    <row r="151" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>1069</v>
       </c>
@@ -22874,7 +22880,7 @@
       <c r="AI151" s="30"/>
       <c r="AJ151" s="31"/>
     </row>
-    <row r="152" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>1074</v>
       </c>
@@ -22944,7 +22950,7 @@
       <c r="AI152" s="30"/>
       <c r="AJ152" s="31"/>
     </row>
-    <row r="153" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>1082</v>
       </c>
@@ -23014,7 +23020,7 @@
       <c r="AI153" s="30"/>
       <c r="AJ153" s="31"/>
     </row>
-    <row r="154" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>1089</v>
       </c>
@@ -23084,7 +23090,7 @@
       <c r="AI154" s="30"/>
       <c r="AJ154" s="31"/>
     </row>
-    <row r="155" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>1094</v>
       </c>
@@ -23154,7 +23160,7 @@
       <c r="AI155" s="30"/>
       <c r="AJ155" s="31"/>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>1100</v>
       </c>
@@ -23204,7 +23210,7 @@
       <c r="AI156" s="30"/>
       <c r="AJ156" s="31"/>
     </row>
-    <row r="157" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>1103</v>
       </c>
@@ -23268,7 +23274,7 @@
       <c r="AI157" s="30"/>
       <c r="AJ157" s="31"/>
     </row>
-    <row r="158" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>1109</v>
       </c>
@@ -23332,7 +23338,7 @@
       <c r="AI158" s="30"/>
       <c r="AJ158" s="31"/>
     </row>
-    <row r="159" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>1115</v>
       </c>
@@ -23404,7 +23410,7 @@
       <c r="AI159" s="30"/>
       <c r="AJ159" s="31"/>
     </row>
-    <row r="160" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>1122</v>
       </c>
@@ -23474,7 +23480,7 @@
       <c r="AI160" s="30"/>
       <c r="AJ160" s="31"/>
     </row>
-    <row r="161" spans="1:36" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>1129</v>
       </c>
@@ -23546,7 +23552,7 @@
       <c r="AI161" s="30"/>
       <c r="AJ161" s="31"/>
     </row>
-    <row r="162" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>1137</v>
       </c>
@@ -23614,7 +23620,7 @@
       <c r="AI162" s="30"/>
       <c r="AJ162" s="31"/>
     </row>
-    <row r="163" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>1142</v>
       </c>
@@ -23686,7 +23692,7 @@
       <c r="AI163" s="30"/>
       <c r="AJ163" s="31"/>
     </row>
-    <row r="164" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>1148</v>
       </c>
@@ -23764,7 +23770,7 @@
       <c r="AI164" s="30"/>
       <c r="AJ164" s="31"/>
     </row>
-    <row r="165" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>1157</v>
       </c>
@@ -23836,7 +23842,7 @@
       <c r="AI165" s="30"/>
       <c r="AJ165" s="31"/>
     </row>
-    <row r="166" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>1162</v>
       </c>
@@ -23908,7 +23914,7 @@
       <c r="AI166" s="30"/>
       <c r="AJ166" s="31"/>
     </row>
-    <row r="167" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>1169</v>
       </c>
@@ -23976,7 +23982,7 @@
       <c r="AI167" s="30"/>
       <c r="AJ167" s="31"/>
     </row>
-    <row r="168" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>1174</v>
       </c>
@@ -24028,7 +24034,7 @@
       <c r="AI168" s="30"/>
       <c r="AJ168" s="31"/>
     </row>
-    <row r="169" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>1178</v>
       </c>
@@ -24102,7 +24108,7 @@
       <c r="AI169" s="30"/>
       <c r="AJ169" s="31"/>
     </row>
-    <row r="170" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>1185</v>
       </c>
@@ -24170,7 +24176,7 @@
       <c r="AI170" s="30"/>
       <c r="AJ170" s="31"/>
     </row>
-    <row r="171" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>1192</v>
       </c>
@@ -24240,7 +24246,7 @@
       <c r="AI171" s="30"/>
       <c r="AJ171" s="31"/>
     </row>
-    <row r="172" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>1199</v>
       </c>
@@ -24312,7 +24318,7 @@
       <c r="AI172" s="30"/>
       <c r="AJ172" s="31"/>
     </row>
-    <row r="173" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>1204</v>
       </c>
@@ -24386,7 +24392,7 @@
       <c r="AI173" s="30"/>
       <c r="AJ173" s="31"/>
     </row>
-    <row r="174" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>1212</v>
       </c>
@@ -24452,7 +24458,7 @@
       <c r="AI174" s="30"/>
       <c r="AJ174" s="31"/>
     </row>
-    <row r="175" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>1218</v>
       </c>
@@ -24530,7 +24536,7 @@
       <c r="AI175" s="30"/>
       <c r="AJ175" s="31"/>
     </row>
-    <row r="176" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>1226</v>
       </c>
@@ -24606,7 +24612,7 @@
       <c r="AI176" s="30"/>
       <c r="AJ176" s="31"/>
     </row>
-    <row r="177" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>1230</v>
       </c>
@@ -24680,7 +24686,7 @@
       <c r="AI177" s="30"/>
       <c r="AJ177" s="31"/>
     </row>
-    <row r="178" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>1233</v>
       </c>
@@ -24750,7 +24756,7 @@
       <c r="AI178" s="30"/>
       <c r="AJ178" s="31"/>
     </row>
-    <row r="179" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>1240</v>
       </c>
@@ -24820,7 +24826,7 @@
       <c r="AI179" s="30"/>
       <c r="AJ179" s="31"/>
     </row>
-    <row r="180" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="75" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>1243</v>
       </c>
@@ -24888,7 +24894,7 @@
       <c r="AI180" s="30"/>
       <c r="AJ180" s="31"/>
     </row>
-    <row r="181" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>1252</v>
       </c>
@@ -24964,7 +24970,7 @@
       <c r="AI181" s="30"/>
       <c r="AJ181" s="31"/>
     </row>
-    <row r="182" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>1258</v>
       </c>
@@ -25036,7 +25042,7 @@
       <c r="AI182" s="30"/>
       <c r="AJ182" s="31"/>
     </row>
-    <row r="183" spans="1:36" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="132" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>1268</v>
       </c>
@@ -25104,7 +25110,7 @@
       <c r="AI183" s="30"/>
       <c r="AJ183" s="31"/>
     </row>
-    <row r="184" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>1274</v>
       </c>
@@ -25174,7 +25180,7 @@
       <c r="AI184" s="30"/>
       <c r="AJ184" s="31"/>
     </row>
-    <row r="185" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>1281</v>
       </c>
@@ -25246,7 +25252,7 @@
       <c r="AI185" s="30"/>
       <c r="AJ185" s="31"/>
     </row>
-    <row r="186" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>1286</v>
       </c>
@@ -25318,7 +25324,7 @@
       <c r="AI186" s="30"/>
       <c r="AJ186" s="31"/>
     </row>
-    <row r="187" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>1292</v>
       </c>
@@ -25388,7 +25394,7 @@
       <c r="AI187" s="30"/>
       <c r="AJ187" s="31"/>
     </row>
-    <row r="188" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>1301</v>
       </c>
@@ -25464,7 +25470,7 @@
       <c r="AI188" s="30"/>
       <c r="AJ188" s="31"/>
     </row>
-    <row r="189" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>1310</v>
       </c>
@@ -25532,7 +25538,7 @@
       <c r="AI189" s="30"/>
       <c r="AJ189" s="31"/>
     </row>
-    <row r="190" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>1315</v>
       </c>
@@ -25606,7 +25612,7 @@
       <c r="AI190" s="30"/>
       <c r="AJ190" s="31"/>
     </row>
-    <row r="191" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>1319</v>
       </c>
@@ -25678,7 +25684,7 @@
       <c r="AI191" s="30"/>
       <c r="AJ191" s="31"/>
     </row>
-    <row r="192" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>1328</v>
       </c>
@@ -25742,7 +25748,7 @@
       <c r="AI192" s="30"/>
       <c r="AJ192" s="31"/>
     </row>
-    <row r="193" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>1333</v>
       </c>
@@ -25812,7 +25818,7 @@
       <c r="AI193" s="30"/>
       <c r="AJ193" s="31"/>
     </row>
-    <row r="194" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>1341</v>
       </c>
@@ -25884,7 +25890,7 @@
       <c r="AI194" s="30"/>
       <c r="AJ194" s="31"/>
     </row>
-    <row r="195" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>1345</v>
       </c>
@@ -25954,7 +25960,7 @@
       <c r="AI195" s="30"/>
       <c r="AJ195" s="31"/>
     </row>
-    <row r="196" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>1351</v>
       </c>
@@ -26026,7 +26032,7 @@
       <c r="AI196" s="30"/>
       <c r="AJ196" s="31"/>
     </row>
-    <row r="197" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>1357</v>
       </c>
@@ -26096,7 +26102,7 @@
       <c r="AI197" s="30"/>
       <c r="AJ197" s="31"/>
     </row>
-    <row r="198" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>1366</v>
       </c>
@@ -26160,7 +26166,7 @@
       <c r="AI198" s="30"/>
       <c r="AJ198" s="31"/>
     </row>
-    <row r="199" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>1371</v>
       </c>
@@ -26234,7 +26240,7 @@
       <c r="AI199" s="30"/>
       <c r="AJ199" s="31"/>
     </row>
-    <row r="200" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>1378</v>
       </c>
@@ -26306,7 +26312,7 @@
       <c r="AI200" s="30"/>
       <c r="AJ200" s="31"/>
     </row>
-    <row r="201" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>1384</v>
       </c>
@@ -26374,7 +26380,7 @@
       <c r="AI201" s="30"/>
       <c r="AJ201" s="31"/>
     </row>
-    <row r="202" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>1393</v>
       </c>
@@ -26446,7 +26452,7 @@
       <c r="AI202" s="30"/>
       <c r="AJ202" s="31"/>
     </row>
-    <row r="203" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>1401</v>
       </c>
@@ -26514,7 +26520,7 @@
       <c r="AI203" s="30"/>
       <c r="AJ203" s="31"/>
     </row>
-    <row r="204" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>1409</v>
       </c>
@@ -26578,7 +26584,7 @@
       <c r="AI204" s="30"/>
       <c r="AJ204" s="31"/>
     </row>
-    <row r="205" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>1416</v>
       </c>
@@ -26640,7 +26646,7 @@
       <c r="AI205" s="30"/>
       <c r="AJ205" s="31"/>
     </row>
-    <row r="206" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>1425</v>
       </c>
@@ -26714,7 +26720,7 @@
       <c r="AI206" s="30"/>
       <c r="AJ206" s="31"/>
     </row>
-    <row r="207" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>1434</v>
       </c>
@@ -26786,7 +26792,7 @@
       <c r="AI207" s="30"/>
       <c r="AJ207" s="31"/>
     </row>
-    <row r="208" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>1438</v>
       </c>
@@ -26858,7 +26864,7 @@
       <c r="AI208" s="30"/>
       <c r="AJ208" s="31"/>
     </row>
-    <row r="209" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>1442</v>
       </c>
@@ -26926,7 +26932,7 @@
       <c r="AI209" s="30"/>
       <c r="AJ209" s="31"/>
     </row>
-    <row r="210" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>1449</v>
       </c>
@@ -26994,7 +27000,7 @@
       <c r="AI210" s="30"/>
       <c r="AJ210" s="31"/>
     </row>
-    <row r="211" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>1456</v>
       </c>
@@ -27070,7 +27076,7 @@
       <c r="AI211" s="30"/>
       <c r="AJ211" s="31"/>
     </row>
-    <row r="212" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>1462</v>
       </c>
@@ -27120,7 +27126,7 @@
       <c r="AI212" s="30"/>
       <c r="AJ212" s="31"/>
     </row>
-    <row r="213" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>1465</v>
       </c>
@@ -27188,7 +27194,7 @@
       <c r="AI213" s="30"/>
       <c r="AJ213" s="31"/>
     </row>
-    <row r="214" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>1470</v>
       </c>
@@ -27256,7 +27262,7 @@
       <c r="AI214" s="30"/>
       <c r="AJ214" s="31"/>
     </row>
-    <row r="215" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>1477</v>
       </c>
@@ -27320,7 +27326,7 @@
       <c r="AI215" s="30"/>
       <c r="AJ215" s="31"/>
     </row>
-    <row r="216" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>1481</v>
       </c>
@@ -27388,7 +27394,7 @@
       <c r="AI216" s="30"/>
       <c r="AJ216" s="31"/>
     </row>
-    <row r="217" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>1487</v>
       </c>
@@ -27458,7 +27464,7 @@
       <c r="AI217" s="30"/>
       <c r="AJ217" s="31"/>
     </row>
-    <row r="218" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>1493</v>
       </c>
@@ -27530,7 +27536,7 @@
       <c r="AI218" s="30"/>
       <c r="AJ218" s="31"/>
     </row>
-    <row r="219" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>1503</v>
       </c>
@@ -27600,7 +27606,7 @@
       <c r="AI219" s="30"/>
       <c r="AJ219" s="31"/>
     </row>
-    <row r="220" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>1508</v>
       </c>
@@ -27666,7 +27672,7 @@
       <c r="AI220" s="30"/>
       <c r="AJ220" s="31"/>
     </row>
-    <row r="221" spans="1:36" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="363" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>1519</v>
       </c>
@@ -27740,7 +27746,7 @@
       <c r="AI221" s="30"/>
       <c r="AJ221" s="31"/>
     </row>
-    <row r="222" spans="1:36" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>1527</v>
       </c>
@@ -27812,7 +27818,7 @@
       <c r="AI222" s="30"/>
       <c r="AJ222" s="31"/>
     </row>
-    <row r="223" spans="1:36" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>1533</v>
       </c>
@@ -27886,7 +27892,7 @@
       <c r="AI223" s="30"/>
       <c r="AJ223" s="31"/>
     </row>
-    <row r="224" spans="1:36" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="198" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>1535</v>
       </c>
@@ -27960,7 +27966,7 @@
       <c r="AI224" s="30"/>
       <c r="AJ224" s="31"/>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -27998,7 +28004,7 @@
       <c r="AI225" s="30"/>
       <c r="AJ225" s="31"/>
     </row>
-    <row r="226" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>1542</v>
       </c>
@@ -28070,7 +28076,7 @@
       <c r="AI226" s="30"/>
       <c r="AJ226" s="31"/>
     </row>
-    <row r="227" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>1549</v>
       </c>
@@ -28138,7 +28144,7 @@
       <c r="AI227" s="30"/>
       <c r="AJ227" s="31"/>
     </row>
-    <row r="228" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>1555</v>
       </c>
@@ -28206,7 +28212,7 @@
       <c r="AI228" s="30"/>
       <c r="AJ228" s="31"/>
     </row>
-    <row r="229" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>1560</v>
       </c>
@@ -28280,7 +28286,7 @@
       <c r="AI229" s="30"/>
       <c r="AJ229" s="31"/>
     </row>
-    <row r="230" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>1567</v>
       </c>
@@ -28352,7 +28358,7 @@
       <c r="AI230" s="30"/>
       <c r="AJ230" s="31"/>
     </row>
-    <row r="231" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>1575</v>
       </c>
@@ -28420,7 +28426,7 @@
       <c r="AI231" s="30"/>
       <c r="AJ231" s="31"/>
     </row>
-    <row r="232" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>1582</v>
       </c>
@@ -28484,7 +28490,7 @@
       <c r="AI232" s="30"/>
       <c r="AJ232" s="31"/>
     </row>
-    <row r="233" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>1588</v>
       </c>
@@ -28548,7 +28554,7 @@
       <c r="AI233" s="30"/>
       <c r="AJ233" s="31"/>
     </row>
-    <row r="234" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>1592</v>
       </c>
@@ -28618,7 +28624,7 @@
       <c r="AI234" s="30"/>
       <c r="AJ234" s="31"/>
     </row>
-    <row r="235" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>1600</v>
       </c>
@@ -28682,7 +28688,7 @@
       <c r="AI235" s="30"/>
       <c r="AJ235" s="31"/>
     </row>
-    <row r="236" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>1604</v>
       </c>
@@ -28746,7 +28752,7 @@
       <c r="AI236" s="30"/>
       <c r="AJ236" s="31"/>
     </row>
-    <row r="237" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>1608</v>
       </c>
@@ -28818,7 +28824,7 @@
       <c r="AI237" s="30"/>
       <c r="AJ237" s="31"/>
     </row>
-    <row r="238" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>1613</v>
       </c>
@@ -28886,7 +28892,7 @@
       <c r="AI238" s="30"/>
       <c r="AJ238" s="31"/>
     </row>
-    <row r="239" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>1620</v>
       </c>
@@ -28958,7 +28964,7 @@
       <c r="AI239" s="30"/>
       <c r="AJ239" s="31"/>
     </row>
-    <row r="240" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>1626</v>
       </c>
@@ -29022,7 +29028,7 @@
       <c r="AI240" s="30"/>
       <c r="AJ240" s="31"/>
     </row>
-    <row r="241" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>1630</v>
       </c>
@@ -29092,7 +29098,7 @@
       <c r="AI241" s="30"/>
       <c r="AJ241" s="31"/>
     </row>
-    <row r="242" spans="1:36" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="143" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>1635</v>
       </c>
@@ -29166,7 +29172,7 @@
       <c r="AI242" s="30"/>
       <c r="AJ242" s="31"/>
     </row>
-    <row r="243" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>1645</v>
       </c>
@@ -29236,7 +29242,7 @@
       <c r="AI243" s="30"/>
       <c r="AJ243" s="31"/>
     </row>
-    <row r="244" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>1654</v>
       </c>
@@ -29308,7 +29314,7 @@
       <c r="AI244" s="30"/>
       <c r="AJ244" s="31"/>
     </row>
-    <row r="245" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>1659</v>
       </c>
@@ -29376,7 +29382,7 @@
       <c r="AI245" s="30"/>
       <c r="AJ245" s="31"/>
     </row>
-    <row r="246" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>1666</v>
       </c>
@@ -29450,7 +29456,7 @@
       <c r="AI246" s="30"/>
       <c r="AJ246" s="31"/>
     </row>
-    <row r="247" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>1671</v>
       </c>
@@ -29524,7 +29530,7 @@
       <c r="AI247" s="30"/>
       <c r="AJ247" s="31"/>
     </row>
-    <row r="248" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>1678</v>
       </c>
@@ -29592,7 +29598,7 @@
       <c r="AI248" s="30"/>
       <c r="AJ248" s="31"/>
     </row>
-    <row r="249" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>1683</v>
       </c>
@@ -29668,7 +29674,7 @@
       <c r="AI249" s="30"/>
       <c r="AJ249" s="31"/>
     </row>
-    <row r="250" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>1690</v>
       </c>
@@ -29738,7 +29744,7 @@
       <c r="AI250" s="30"/>
       <c r="AJ250" s="31"/>
     </row>
-    <row r="251" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>1695</v>
       </c>
@@ -29804,7 +29810,7 @@
       <c r="AI251" s="30"/>
       <c r="AJ251" s="31"/>
     </row>
-    <row r="252" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="143" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>1699</v>
       </c>
@@ -29876,7 +29882,7 @@
       <c r="AI252" s="30"/>
       <c r="AJ252" s="31"/>
     </row>
-    <row r="253" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>1705</v>
       </c>
@@ -29954,7 +29960,7 @@
       <c r="AI253" s="30"/>
       <c r="AJ253" s="31"/>
     </row>
-    <row r="254" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>1712</v>
       </c>
@@ -30024,7 +30030,7 @@
       <c r="AI254" s="30"/>
       <c r="AJ254" s="31"/>
     </row>
-    <row r="255" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>1716</v>
       </c>
@@ -30074,7 +30080,7 @@
       <c r="AI255" s="30"/>
       <c r="AJ255" s="31"/>
     </row>
-    <row r="256" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>1719</v>
       </c>
@@ -30142,7 +30148,7 @@
       <c r="AI256" s="30"/>
       <c r="AJ256" s="31"/>
     </row>
-    <row r="257" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>1724</v>
       </c>
@@ -30210,7 +30216,7 @@
       <c r="AI257" s="30"/>
       <c r="AJ257" s="31"/>
     </row>
-    <row r="258" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>1729</v>
       </c>
@@ -30278,7 +30284,7 @@
       <c r="AI258" s="30"/>
       <c r="AJ258" s="31"/>
     </row>
-    <row r="259" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>1734</v>
       </c>
@@ -30348,7 +30354,7 @@
       <c r="AI259" s="30"/>
       <c r="AJ259" s="31"/>
     </row>
-    <row r="260" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>1742</v>
       </c>
@@ -30418,7 +30424,7 @@
       <c r="AI260" s="30"/>
       <c r="AJ260" s="31"/>
     </row>
-    <row r="261" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>1747</v>
       </c>
@@ -30488,7 +30494,7 @@
       <c r="AI261" s="30"/>
       <c r="AJ261" s="31"/>
     </row>
-    <row r="262" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>1756</v>
       </c>
@@ -30556,7 +30562,7 @@
       <c r="AI262" s="30"/>
       <c r="AJ262" s="31"/>
     </row>
-    <row r="263" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>1767</v>
       </c>
@@ -30622,7 +30628,7 @@
       <c r="AI263" s="30"/>
       <c r="AJ263" s="31"/>
     </row>
-    <row r="264" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>1770</v>
       </c>
@@ -30690,7 +30696,7 @@
       <c r="AI264" s="30"/>
       <c r="AJ264" s="31"/>
     </row>
-    <row r="265" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>1774</v>
       </c>
@@ -30758,7 +30764,7 @@
       <c r="AI265" s="30"/>
       <c r="AJ265" s="31"/>
     </row>
-    <row r="266" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>1780</v>
       </c>
@@ -30828,7 +30834,7 @@
       <c r="AI266" s="30"/>
       <c r="AJ266" s="31"/>
     </row>
-    <row r="267" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>1786</v>
       </c>
@@ -30898,7 +30904,7 @@
       <c r="AI267" s="30"/>
       <c r="AJ267" s="31"/>
     </row>
-    <row r="268" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>1794</v>
       </c>
@@ -30964,7 +30970,7 @@
       <c r="AI268" s="30"/>
       <c r="AJ268" s="31"/>
     </row>
-    <row r="269" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>1800</v>
       </c>
@@ -31034,7 +31040,7 @@
       <c r="AI269" s="30"/>
       <c r="AJ269" s="31"/>
     </row>
-    <row r="270" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>1807</v>
       </c>
@@ -31106,7 +31112,7 @@
       <c r="AI270" s="30"/>
       <c r="AJ270" s="31"/>
     </row>
-    <row r="271" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>1813</v>
       </c>
@@ -31174,7 +31180,7 @@
       <c r="AI271" s="30"/>
       <c r="AJ271" s="31"/>
     </row>
-    <row r="272" spans="1:36" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>1821</v>
       </c>
@@ -31240,7 +31246,7 @@
       <c r="AI272" s="30"/>
       <c r="AJ272" s="31"/>
     </row>
-    <row r="273" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>1827</v>
       </c>
@@ -31306,7 +31312,7 @@
       <c r="AI273" s="30"/>
       <c r="AJ273" s="31"/>
     </row>
-    <row r="274" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>1830</v>
       </c>
@@ -31374,7 +31380,7 @@
       <c r="AI274" s="30"/>
       <c r="AJ274" s="31"/>
     </row>
-    <row r="275" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>1831</v>
       </c>
@@ -31442,7 +31448,7 @@
       <c r="AI275" s="30"/>
       <c r="AJ275" s="31"/>
     </row>
-    <row r="276" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>1832</v>
       </c>
@@ -31514,7 +31520,7 @@
       <c r="AI276" s="30"/>
       <c r="AJ276" s="31"/>
     </row>
-    <row r="277" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>1837</v>
       </c>
@@ -31584,7 +31590,7 @@
       <c r="AI277" s="30"/>
       <c r="AJ277" s="31"/>
     </row>
-    <row r="278" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>1839</v>
       </c>
@@ -31656,7 +31662,7 @@
       <c r="AI278" s="30"/>
       <c r="AJ278" s="31"/>
     </row>
-    <row r="279" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>1847</v>
       </c>
@@ -31726,7 +31732,7 @@
       <c r="AI279" s="30"/>
       <c r="AJ279" s="31"/>
     </row>
-    <row r="280" spans="1:36" ht="326.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" ht="264" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>1850</v>
       </c>
@@ -31804,7 +31810,7 @@
       <c r="AI280" s="30"/>
       <c r="AJ280" s="31"/>
     </row>
-    <row r="281" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>1859</v>
       </c>
@@ -31876,7 +31882,7 @@
       <c r="AI281" s="30"/>
       <c r="AJ281" s="31"/>
     </row>
-    <row r="282" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>1866</v>
       </c>
@@ -31944,7 +31950,7 @@
       <c r="AI282" s="30"/>
       <c r="AJ282" s="31"/>
     </row>
-    <row r="283" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>1873</v>
       </c>
@@ -32016,7 +32022,7 @@
       <c r="AI283" s="30"/>
       <c r="AJ283" s="31"/>
     </row>
-    <row r="284" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>1880</v>
       </c>
@@ -32086,7 +32092,7 @@
       <c r="AI284" s="30"/>
       <c r="AJ284" s="31"/>
     </row>
-    <row r="285" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>1887</v>
       </c>
@@ -32152,7 +32158,7 @@
       <c r="AI285" s="30"/>
       <c r="AJ285" s="31"/>
     </row>
-    <row r="286" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>1891</v>
       </c>
@@ -32224,7 +32230,7 @@
       <c r="AI286" s="30"/>
       <c r="AJ286" s="31"/>
     </row>
-    <row r="287" spans="1:36" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>1896</v>
       </c>
@@ -32300,7 +32306,7 @@
       <c r="AI287" s="30"/>
       <c r="AJ287" s="31"/>
     </row>
-    <row r="288" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>1899</v>
       </c>
@@ -32370,7 +32376,7 @@
       <c r="AI288" s="30"/>
       <c r="AJ288" s="31"/>
     </row>
-    <row r="289" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>1901</v>
       </c>
@@ -32436,7 +32442,7 @@
       <c r="AI289" s="30"/>
       <c r="AJ289" s="31"/>
     </row>
-    <row r="290" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>1907</v>
       </c>
@@ -32506,7 +32512,7 @@
       <c r="AI290" s="30"/>
       <c r="AJ290" s="31"/>
     </row>
-    <row r="291" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>1912</v>
       </c>
@@ -32576,7 +32582,7 @@
       <c r="AI291" s="30"/>
       <c r="AJ291" s="31"/>
     </row>
-    <row r="292" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" ht="121" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>1918</v>
       </c>
@@ -32652,7 +32658,7 @@
       <c r="AI292" s="30"/>
       <c r="AJ292" s="31"/>
     </row>
-    <row r="293" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>1926</v>
       </c>
@@ -32724,7 +32730,7 @@
       <c r="AI293" s="30"/>
       <c r="AJ293" s="31"/>
     </row>
-    <row r="294" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>1933</v>
       </c>
@@ -32788,7 +32794,7 @@
       <c r="AI294" s="30"/>
       <c r="AJ294" s="31"/>
     </row>
-    <row r="295" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>1937</v>
       </c>
@@ -32860,7 +32866,7 @@
       <c r="AI295" s="30"/>
       <c r="AJ295" s="31"/>
     </row>
-    <row r="296" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>1943</v>
       </c>
@@ -32926,7 +32932,7 @@
       <c r="AI296" s="30"/>
       <c r="AJ296" s="31"/>
     </row>
-    <row r="297" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>1948</v>
       </c>
@@ -32994,7 +33000,7 @@
       <c r="AI297" s="30"/>
       <c r="AJ297" s="31"/>
     </row>
-    <row r="298" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>1954</v>
       </c>
@@ -33066,7 +33072,7 @@
       <c r="AI298" s="30"/>
       <c r="AJ298" s="31"/>
     </row>
-    <row r="299" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>1959</v>
       </c>
@@ -33138,7 +33144,7 @@
       <c r="AI299" s="30"/>
       <c r="AJ299" s="31"/>
     </row>
-    <row r="300" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>1963</v>
       </c>
@@ -33210,7 +33216,7 @@
       <c r="AI300" s="30"/>
       <c r="AJ300" s="31"/>
     </row>
-    <row r="301" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>1967</v>
       </c>
@@ -33282,7 +33288,7 @@
       <c r="AI301" s="30"/>
       <c r="AJ301" s="31"/>
     </row>
-    <row r="302" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>1971</v>
       </c>
@@ -33350,7 +33356,7 @@
       <c r="AI302" s="30"/>
       <c r="AJ302" s="31"/>
     </row>
-    <row r="303" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>1979</v>
       </c>
@@ -33420,7 +33426,7 @@
       <c r="AI303" s="30"/>
       <c r="AJ303" s="31"/>
     </row>
-    <row r="304" spans="1:36" ht="225" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>1984</v>
       </c>
@@ -33488,7 +33494,7 @@
       <c r="AI304" s="30"/>
       <c r="AJ304" s="31"/>
     </row>
-    <row r="305" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
         <v>1986</v>
       </c>
@@ -33560,7 +33566,7 @@
       <c r="AI305" s="30"/>
       <c r="AJ305" s="31"/>
     </row>
-    <row r="306" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>1992</v>
       </c>
@@ -33630,7 +33636,7 @@
       <c r="AI306" s="30"/>
       <c r="AJ306" s="31"/>
     </row>
-    <row r="307" spans="1:36" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" ht="176" x14ac:dyDescent="0.2">
       <c r="A307" s="4" t="s">
         <v>2001</v>
       </c>
@@ -33698,7 +33704,7 @@
       <c r="AI307" s="30"/>
       <c r="AJ307" s="31"/>
     </row>
-    <row r="308" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>2007</v>
       </c>
@@ -33766,7 +33772,7 @@
       <c r="AI308" s="30"/>
       <c r="AJ308" s="31"/>
     </row>
-    <row r="309" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A309" s="4" t="s">
         <v>2016</v>
       </c>
@@ -33838,7 +33844,7 @@
       <c r="AI309" s="30"/>
       <c r="AJ309" s="31"/>
     </row>
-    <row r="310" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>2025</v>
       </c>
@@ -33912,7 +33918,7 @@
       <c r="AI310" s="30"/>
       <c r="AJ310" s="31"/>
     </row>
-    <row r="311" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
         <v>2032</v>
       </c>
@@ -33988,7 +33994,7 @@
       <c r="AI311" s="30"/>
       <c r="AJ311" s="31"/>
     </row>
-    <row r="312" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>2034</v>
       </c>
@@ -34058,7 +34064,7 @@
       <c r="AI312" s="30"/>
       <c r="AJ312" s="31"/>
     </row>
-    <row r="313" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A313" s="4" t="s">
         <v>2039</v>
       </c>
@@ -34128,7 +34134,7 @@
       <c r="AI313" s="30"/>
       <c r="AJ313" s="31"/>
     </row>
-    <row r="314" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>2045</v>
       </c>
@@ -34200,7 +34206,7 @@
       <c r="AI314" s="30"/>
       <c r="AJ314" s="31"/>
     </row>
-    <row r="315" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A315" s="4" t="s">
         <v>2050</v>
       </c>
@@ -34272,7 +34278,7 @@
       <c r="AI315" s="30"/>
       <c r="AJ315" s="31"/>
     </row>
-    <row r="316" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>2057</v>
       </c>
@@ -34344,7 +34350,7 @@
       <c r="AI316" s="30"/>
       <c r="AJ316" s="31"/>
     </row>
-    <row r="317" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A317" s="4" t="s">
         <v>2064</v>
       </c>
@@ -34418,7 +34424,7 @@
       <c r="AI317" s="30"/>
       <c r="AJ317" s="31"/>
     </row>
-    <row r="318" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>2070</v>
       </c>
@@ -34488,7 +34494,7 @@
       <c r="AI318" s="30"/>
       <c r="AJ318" s="31"/>
     </row>
-    <row r="319" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
         <v>2078</v>
       </c>
@@ -34556,7 +34562,7 @@
       <c r="AI319" s="30"/>
       <c r="AJ319" s="31"/>
     </row>
-    <row r="320" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>2084</v>
       </c>
@@ -34606,7 +34612,7 @@
       <c r="AI320" s="30"/>
       <c r="AJ320" s="31"/>
     </row>
-    <row r="321" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
         <v>2087</v>
       </c>
@@ -34676,7 +34682,7 @@
       <c r="AI321" s="30"/>
       <c r="AJ321" s="31"/>
     </row>
-    <row r="322" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>2094</v>
       </c>
@@ -34746,7 +34752,7 @@
       <c r="AI322" s="30"/>
       <c r="AJ322" s="31"/>
     </row>
-    <row r="323" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A323" s="4" t="s">
         <v>2097</v>
       </c>
@@ -34818,7 +34824,7 @@
       <c r="AI323" s="30"/>
       <c r="AJ323" s="31"/>
     </row>
-    <row r="324" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>2106</v>
       </c>
@@ -34888,7 +34894,7 @@
       <c r="AI324" s="30"/>
       <c r="AJ324" s="31"/>
     </row>
-    <row r="325" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A325" s="4" t="s">
         <v>2109</v>
       </c>
@@ -34960,7 +34966,7 @@
       <c r="AI325" s="30"/>
       <c r="AJ325" s="31"/>
     </row>
-    <row r="326" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>2114</v>
       </c>
@@ -35024,7 +35030,7 @@
       <c r="AI326" s="30"/>
       <c r="AJ326" s="31"/>
     </row>
-    <row r="327" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
         <v>2120</v>
       </c>
@@ -35078,7 +35084,7 @@
       <c r="AI327" s="30"/>
       <c r="AJ327" s="31"/>
     </row>
-    <row r="328" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>2124</v>
       </c>
@@ -35148,7 +35154,7 @@
       <c r="AI328" s="30"/>
       <c r="AJ328" s="31"/>
     </row>
-    <row r="329" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A329" s="4" t="s">
         <v>2129</v>
       </c>
@@ -35218,7 +35224,7 @@
       <c r="AI329" s="30"/>
       <c r="AJ329" s="31"/>
     </row>
-    <row r="330" spans="1:36" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>2133</v>
       </c>
@@ -35288,7 +35294,7 @@
       <c r="AI330" s="30"/>
       <c r="AJ330" s="31"/>
     </row>
-    <row r="331" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A331" s="4" t="s">
         <v>2140</v>
       </c>
@@ -35364,7 +35370,7 @@
       <c r="AI331" s="30"/>
       <c r="AJ331" s="31"/>
     </row>
-    <row r="332" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>2147</v>
       </c>
@@ -35440,7 +35446,7 @@
       <c r="AI332" s="30"/>
       <c r="AJ332" s="31"/>
     </row>
-    <row r="333" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A333" s="4" t="s">
         <v>2153</v>
       </c>
@@ -35510,7 +35516,7 @@
       <c r="AI333" s="30"/>
       <c r="AJ333" s="31"/>
     </row>
-    <row r="334" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>2157</v>
       </c>
@@ -35580,7 +35586,7 @@
       <c r="AI334" s="30"/>
       <c r="AJ334" s="31"/>
     </row>
-    <row r="335" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>2165</v>
       </c>
@@ -35658,7 +35664,7 @@
       <c r="AI335" s="30"/>
       <c r="AJ335" s="31"/>
     </row>
-    <row r="336" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>2167</v>
       </c>
@@ -35720,7 +35726,7 @@
       <c r="AI336" s="30"/>
       <c r="AJ336" s="31"/>
     </row>
-    <row r="337" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A337" s="4" t="s">
         <v>2173</v>
       </c>
@@ -35800,7 +35806,7 @@
       <c r="AI337" s="30"/>
       <c r="AJ337" s="31"/>
     </row>
-    <row r="338" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>2180</v>
       </c>
@@ -35880,7 +35886,7 @@
       <c r="AI338" s="30"/>
       <c r="AJ338" s="31"/>
     </row>
-    <row r="339" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A339" s="4" t="s">
         <v>2184</v>
       </c>
@@ -35952,7 +35958,7 @@
       <c r="AI339" s="30"/>
       <c r="AJ339" s="31"/>
     </row>
-    <row r="340" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>2193</v>
       </c>
@@ -36020,7 +36026,7 @@
       <c r="AI340" s="30"/>
       <c r="AJ340" s="31"/>
     </row>
-    <row r="341" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A341" s="4" t="s">
         <v>2202</v>
       </c>
@@ -36090,7 +36096,7 @@
       <c r="AI341" s="30"/>
       <c r="AJ341" s="31"/>
     </row>
-    <row r="342" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>2210</v>
       </c>
@@ -36160,7 +36166,7 @@
       <c r="AI342" s="30"/>
       <c r="AJ342" s="31"/>
     </row>
-    <row r="343" spans="1:36" ht="202.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
         <v>2217</v>
       </c>
@@ -36228,7 +36234,7 @@
       <c r="AI343" s="30"/>
       <c r="AJ343" s="31"/>
     </row>
-    <row r="344" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>2223</v>
       </c>
@@ -36300,7 +36306,7 @@
       <c r="AI344" s="30"/>
       <c r="AJ344" s="31"/>
     </row>
-    <row r="345" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A345" s="4" t="s">
         <v>2229</v>
       </c>
@@ -36366,7 +36372,7 @@
       <c r="AI345" s="30"/>
       <c r="AJ345" s="31"/>
     </row>
-    <row r="346" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>2236</v>
       </c>
@@ -36436,7 +36442,7 @@
       <c r="AI346" s="30"/>
       <c r="AJ346" s="31"/>
     </row>
-    <row r="347" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
         <v>2241</v>
       </c>
@@ -36504,7 +36510,7 @@
       <c r="AI347" s="30"/>
       <c r="AJ347" s="31"/>
     </row>
-    <row r="348" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>2248</v>
       </c>
@@ -36572,7 +36578,7 @@
       <c r="AI348" s="30"/>
       <c r="AJ348" s="31"/>
     </row>
-    <row r="349" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
         <v>2255</v>
       </c>
@@ -36630,7 +36636,7 @@
       <c r="AI349" s="30"/>
       <c r="AJ349" s="31"/>
     </row>
-    <row r="350" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>2260</v>
       </c>
@@ -36698,7 +36704,7 @@
       <c r="AI350" s="30"/>
       <c r="AJ350" s="31"/>
     </row>
-    <row r="351" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A351" s="4" t="s">
         <v>2265</v>
       </c>
@@ -36770,7 +36776,7 @@
       <c r="AI351" s="30"/>
       <c r="AJ351" s="31"/>
     </row>
-    <row r="352" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>2273</v>
       </c>
@@ -36840,7 +36846,7 @@
       <c r="AI352" s="30"/>
       <c r="AJ352" s="31"/>
     </row>
-    <row r="353" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A353" s="4" t="s">
         <v>2280</v>
       </c>
@@ -36908,7 +36914,7 @@
       <c r="AI353" s="30"/>
       <c r="AJ353" s="31"/>
     </row>
-    <row r="354" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>2286</v>
       </c>
@@ -36984,7 +36990,7 @@
       <c r="AI354" s="30"/>
       <c r="AJ354" s="31"/>
     </row>
-    <row r="355" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A355" s="4" t="s">
         <v>2292</v>
       </c>
@@ -37064,7 +37070,7 @@
       <c r="AI355" s="30"/>
       <c r="AJ355" s="31"/>
     </row>
-    <row r="356" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>2296</v>
       </c>
@@ -37132,7 +37138,7 @@
       <c r="AI356" s="30"/>
       <c r="AJ356" s="31"/>
     </row>
-    <row r="357" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A357" s="4" t="s">
         <v>2302</v>
       </c>
@@ -37202,7 +37208,7 @@
       <c r="AI357" s="30"/>
       <c r="AJ357" s="31"/>
     </row>
-    <row r="358" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>2309</v>
       </c>
@@ -37272,7 +37278,7 @@
       <c r="AI358" s="30"/>
       <c r="AJ358" s="31"/>
     </row>
-    <row r="359" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A359" s="4" t="s">
         <v>2314</v>
       </c>
@@ -37352,7 +37358,7 @@
       <c r="AI359" s="30"/>
       <c r="AJ359" s="31"/>
     </row>
-    <row r="360" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>2322</v>
       </c>
@@ -37424,7 +37430,7 @@
       <c r="AI360" s="30"/>
       <c r="AJ360" s="31"/>
     </row>
-    <row r="361" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>2328</v>
       </c>
@@ -37494,7 +37500,7 @@
       <c r="AI361" s="30"/>
       <c r="AJ361" s="31"/>
     </row>
-    <row r="362" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>2335</v>
       </c>
@@ -37564,7 +37570,7 @@
       <c r="AI362" s="30"/>
       <c r="AJ362" s="31"/>
     </row>
-    <row r="363" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A363" s="4" t="s">
         <v>2341</v>
       </c>
@@ -37640,7 +37646,7 @@
       <c r="AI363" s="30"/>
       <c r="AJ363" s="31"/>
     </row>
-    <row r="364" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>2346</v>
       </c>
@@ -37712,7 +37718,7 @@
       <c r="AI364" s="30"/>
       <c r="AJ364" s="31"/>
     </row>
-    <row r="365" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>2352</v>
       </c>
@@ -37788,7 +37794,7 @@
       <c r="AI365" s="30"/>
       <c r="AJ365" s="31"/>
     </row>
-    <row r="366" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" ht="121" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>2359</v>
       </c>
@@ -37860,7 +37866,7 @@
       <c r="AI366" s="30"/>
       <c r="AJ366" s="31"/>
     </row>
-    <row r="367" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>2368</v>
       </c>
@@ -37926,7 +37932,7 @@
       <c r="AI367" s="30"/>
       <c r="AJ367" s="31"/>
     </row>
-    <row r="368" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>2371</v>
       </c>
@@ -37996,7 +38002,7 @@
       <c r="AI368" s="30"/>
       <c r="AJ368" s="31"/>
     </row>
-    <row r="369" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>2377</v>
       </c>
@@ -38066,7 +38072,7 @@
       <c r="AI369" s="30"/>
       <c r="AJ369" s="31"/>
     </row>
-    <row r="370" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>2386</v>
       </c>
@@ -38140,7 +38146,7 @@
       <c r="AI370" s="30"/>
       <c r="AJ370" s="31"/>
     </row>
-    <row r="371" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A371" s="4" t="s">
         <v>2389</v>
       </c>
@@ -38208,7 +38214,7 @@
       <c r="AI371" s="30"/>
       <c r="AJ371" s="31"/>
     </row>
-    <row r="372" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>2393</v>
       </c>
@@ -38278,7 +38284,7 @@
       <c r="AI372" s="30"/>
       <c r="AJ372" s="31"/>
     </row>
-    <row r="373" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" ht="121" x14ac:dyDescent="0.2">
       <c r="A373" s="4" t="s">
         <v>2399</v>
       </c>
@@ -38346,7 +38352,7 @@
       <c r="AI373" s="30"/>
       <c r="AJ373" s="31"/>
     </row>
-    <row r="374" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>2404</v>
       </c>
@@ -38416,7 +38422,7 @@
       <c r="AI374" s="30"/>
       <c r="AJ374" s="31"/>
     </row>
-    <row r="375" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36" ht="143" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>2408</v>
       </c>
@@ -38488,7 +38494,7 @@
       <c r="AI375" s="30"/>
       <c r="AJ375" s="31"/>
     </row>
-    <row r="376" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>2418</v>
       </c>
@@ -38562,7 +38568,7 @@
       <c r="AI376" s="30"/>
       <c r="AJ376" s="31"/>
     </row>
-    <row r="377" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>2423</v>
       </c>
@@ -38632,7 +38638,7 @@
       <c r="AI377" s="30"/>
       <c r="AJ377" s="31"/>
     </row>
-    <row r="378" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>2429</v>
       </c>
@@ -38702,7 +38708,7 @@
       <c r="AI378" s="30"/>
       <c r="AJ378" s="31"/>
     </row>
-    <row r="379" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>2437</v>
       </c>
@@ -38774,7 +38780,7 @@
       <c r="AI379" s="30"/>
       <c r="AJ379" s="31"/>
     </row>
-    <row r="380" spans="1:36" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:36" ht="187" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>2443</v>
       </c>
@@ -38850,7 +38856,7 @@
       <c r="AI380" s="30"/>
       <c r="AJ380" s="31"/>
     </row>
-    <row r="381" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>2450</v>
       </c>
@@ -38922,7 +38928,7 @@
       <c r="AI381" s="30"/>
       <c r="AJ381" s="31"/>
     </row>
-    <row r="382" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>2456</v>
       </c>
@@ -39002,7 +39008,7 @@
       <c r="AI382" s="30"/>
       <c r="AJ382" s="31"/>
     </row>
-    <row r="383" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A383" s="4" t="s">
         <v>2464</v>
       </c>
@@ -39074,7 +39080,7 @@
       <c r="AI383" s="30"/>
       <c r="AJ383" s="31"/>
     </row>
-    <row r="384" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>2469</v>
       </c>
@@ -39142,7 +39148,7 @@
       <c r="AI384" s="30"/>
       <c r="AJ384" s="31"/>
     </row>
-    <row r="385" spans="1:37" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:37" ht="105" x14ac:dyDescent="0.2">
       <c r="A385" s="4" t="s">
         <v>2477</v>
       </c>
@@ -39214,7 +39220,7 @@
       <c r="AI385" s="30"/>
       <c r="AJ385" s="31"/>
     </row>
-    <row r="386" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:37" ht="44" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>2482</v>
       </c>
@@ -39286,7 +39292,7 @@
       <c r="AI386" s="30"/>
       <c r="AJ386" s="31"/>
     </row>
-    <row r="387" spans="1:37" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:37" ht="44" x14ac:dyDescent="0.2">
       <c r="A387" s="4" t="s">
         <v>2487</v>
       </c>
@@ -39354,7 +39360,7 @@
       <c r="AI387" s="30"/>
       <c r="AJ387" s="31"/>
     </row>
-    <row r="388" spans="1:37" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:37" ht="77" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>2495</v>
       </c>
@@ -39424,7 +39430,7 @@
       <c r="AI388" s="30"/>
       <c r="AJ388" s="31"/>
     </row>
-    <row r="389" spans="1:37" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:37" ht="77" x14ac:dyDescent="0.2">
       <c r="A389" s="4" t="s">
         <v>2501</v>
       </c>
@@ -39492,7 +39498,7 @@
       <c r="AI389" s="30"/>
       <c r="AJ389" s="31"/>
     </row>
-    <row r="390" spans="1:37" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:37" ht="66" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>2508</v>
       </c>
@@ -39564,7 +39570,7 @@
       <c r="AI390" s="30"/>
       <c r="AJ390" s="31"/>
     </row>
-    <row r="391" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:37" ht="66" x14ac:dyDescent="0.2">
       <c r="A391" s="4" t="s">
         <v>2514</v>
       </c>
@@ -39630,7 +39636,7 @@
       <c r="AI391" s="30"/>
       <c r="AJ391" s="31"/>
     </row>
-    <row r="392" spans="1:37" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:37" ht="77" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>2519</v>
       </c>
@@ -39704,7 +39710,7 @@
       <c r="AI392" s="30"/>
       <c r="AJ392" s="31"/>
     </row>
-    <row r="393" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:37" ht="77" x14ac:dyDescent="0.2">
       <c r="A393" s="4" t="s">
         <v>2525</v>
       </c>
@@ -39782,7 +39788,7 @@
       <c r="AI393" s="30"/>
       <c r="AJ393" s="31"/>
     </row>
-    <row r="394" spans="1:37" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:37" ht="143" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>2530</v>
       </c>
@@ -39856,7 +39862,7 @@
       <c r="AI394" s="30"/>
       <c r="AJ394" s="31"/>
     </row>
-    <row r="395" spans="1:37" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:37" ht="30" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
         <v>2536</v>
       </c>
@@ -39928,7 +39934,7 @@
       <c r="AI395" s="30"/>
       <c r="AJ395" s="31"/>
     </row>
-    <row r="396" spans="1:37" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:37" ht="66" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>2542</v>
       </c>
@@ -39997,7 +40003,7 @@
       <c r="AJ396" s="31"/>
       <c r="AK396" s="32"/>
     </row>
-    <row r="397" spans="1:37" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:37" ht="44" x14ac:dyDescent="0.2">
       <c r="A397" s="4" t="s">
         <v>2546</v>
       </c>
@@ -40067,7 +40073,7 @@
       <c r="AI397" s="30"/>
       <c r="AJ397" s="31"/>
     </row>
-    <row r="398" spans="1:37" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:37" ht="22" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>2550</v>
       </c>
@@ -40117,7 +40123,7 @@
       <c r="AI398" s="30"/>
       <c r="AJ398" s="31"/>
     </row>
-    <row r="399" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:37" ht="66" x14ac:dyDescent="0.2">
       <c r="A399" s="4" t="s">
         <v>2553</v>
       </c>
@@ -40187,7 +40193,7 @@
       <c r="AI399" s="30"/>
       <c r="AJ399" s="31"/>
     </row>
-    <row r="400" spans="1:37" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:37" ht="44" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>2559</v>
       </c>
@@ -40255,7 +40261,7 @@
       <c r="AI400" s="30"/>
       <c r="AJ400" s="31"/>
     </row>
-    <row r="401" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A401" s="4" t="s">
         <v>2564</v>
       </c>
@@ -40323,7 +40329,7 @@
       <c r="AI401" s="30"/>
       <c r="AJ401" s="31"/>
     </row>
-    <row r="402" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>2570</v>
       </c>
@@ -40397,7 +40403,7 @@
       <c r="AI402" s="30"/>
       <c r="AJ402" s="31"/>
     </row>
-    <row r="403" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>2576</v>
       </c>
@@ -40475,7 +40481,7 @@
       <c r="AI403" s="30"/>
       <c r="AJ403" s="31"/>
     </row>
-    <row r="404" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>2582</v>
       </c>
@@ -40543,7 +40549,7 @@
       <c r="AI404" s="30"/>
       <c r="AJ404" s="31"/>
     </row>
-    <row r="405" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A405" s="4" t="s">
         <v>2589</v>
       </c>
@@ -40611,7 +40617,7 @@
       <c r="AI405" s="30"/>
       <c r="AJ405" s="31"/>
     </row>
-    <row r="406" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>2594</v>
       </c>
@@ -40681,7 +40687,7 @@
       <c r="AI406" s="30"/>
       <c r="AJ406" s="31"/>
     </row>
-    <row r="407" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>2602</v>
       </c>
@@ -40747,7 +40753,7 @@
       <c r="AI407" s="30"/>
       <c r="AJ407" s="31"/>
     </row>
-    <row r="408" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>2604</v>
       </c>
@@ -40799,7 +40805,7 @@
       <c r="AI408" s="30"/>
       <c r="AJ408" s="31"/>
     </row>
-    <row r="409" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A409" s="4" t="s">
         <v>2608</v>
       </c>
@@ -40863,7 +40869,7 @@
       <c r="AI409" s="30"/>
       <c r="AJ409" s="31"/>
     </row>
-    <row r="410" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>2614</v>
       </c>
@@ -40943,7 +40949,7 @@
       <c r="AI410" s="30"/>
       <c r="AJ410" s="31"/>
     </row>
-    <row r="411" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A411" s="4" t="s">
         <v>2619</v>
       </c>
@@ -41009,7 +41015,7 @@
       <c r="AI411" s="30"/>
       <c r="AJ411" s="31"/>
     </row>
-    <row r="412" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>2625</v>
       </c>
@@ -41077,7 +41083,7 @@
       <c r="AI412" s="30"/>
       <c r="AJ412" s="31"/>
     </row>
-    <row r="413" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="4" t="s">
         <v>2632</v>
       </c>
@@ -41149,7 +41155,7 @@
       <c r="AI413" s="30"/>
       <c r="AJ413" s="31"/>
     </row>
-    <row r="414" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:36" ht="121" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>2638</v>
       </c>
@@ -41223,7 +41229,7 @@
       <c r="AI414" s="30"/>
       <c r="AJ414" s="31"/>
     </row>
-    <row r="415" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>2647</v>
       </c>
@@ -41293,7 +41299,7 @@
       <c r="AI415" s="30"/>
       <c r="AJ415" s="31"/>
     </row>
-    <row r="416" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>2654</v>
       </c>
@@ -41363,7 +41369,7 @@
       <c r="AI416" s="30"/>
       <c r="AJ416" s="31"/>
     </row>
-    <row r="417" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A417" s="4" t="s">
         <v>2661</v>
       </c>
@@ -41433,7 +41439,7 @@
       <c r="AI417" s="30"/>
       <c r="AJ417" s="31"/>
     </row>
-    <row r="418" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>2669</v>
       </c>
@@ -41507,7 +41513,7 @@
       <c r="AI418" s="30"/>
       <c r="AJ418" s="31"/>
     </row>
-    <row r="419" spans="1:36" ht="258.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:36" ht="198" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>2679</v>
       </c>
@@ -41579,7 +41585,7 @@
       <c r="AI419" s="30"/>
       <c r="AJ419" s="31"/>
     </row>
-    <row r="420" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>2683</v>
       </c>
@@ -41649,7 +41655,7 @@
       <c r="AI420" s="30"/>
       <c r="AJ420" s="31"/>
     </row>
-    <row r="421" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>2690</v>
       </c>
@@ -41721,7 +41727,7 @@
       <c r="AI421" s="30"/>
       <c r="AJ421" s="31"/>
     </row>
-    <row r="422" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>2695</v>
       </c>
@@ -41793,7 +41799,7 @@
       <c r="AI422" s="30"/>
       <c r="AJ422" s="31"/>
     </row>
-    <row r="423" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A423" s="4" t="s">
         <v>2701</v>
       </c>
@@ -41867,7 +41873,7 @@
       <c r="AI423" s="30"/>
       <c r="AJ423" s="31"/>
     </row>
-    <row r="424" spans="1:36" ht="36" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:36" ht="36" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>2707</v>
       </c>
@@ -41937,7 +41943,7 @@
       <c r="AI424" s="30"/>
       <c r="AJ424" s="31"/>
     </row>
-    <row r="425" spans="1:36" ht="348.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:36" ht="253" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>2713</v>
       </c>
@@ -42007,7 +42013,7 @@
       <c r="AI425" s="30"/>
       <c r="AJ425" s="31"/>
     </row>
-    <row r="426" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>2720</v>
       </c>
@@ -42075,7 +42081,7 @@
       <c r="AI426" s="30"/>
       <c r="AJ426" s="31"/>
     </row>
-    <row r="427" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A427" s="4" t="s">
         <v>2726</v>
       </c>
@@ -42147,7 +42153,7 @@
       <c r="AI427" s="30"/>
       <c r="AJ427" s="31"/>
     </row>
-    <row r="428" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:36" ht="30" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>2732</v>
       </c>
@@ -42217,7 +42223,7 @@
       <c r="AI428" s="30"/>
       <c r="AJ428" s="31"/>
     </row>
-    <row r="429" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:36" ht="22" x14ac:dyDescent="0.2">
       <c r="A429" s="4" t="s">
         <v>2737</v>
       </c>
@@ -42285,7 +42291,7 @@
       <c r="AI429" s="30"/>
       <c r="AJ429" s="31"/>
     </row>
-    <row r="430" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>2741</v>
       </c>
@@ -42357,7 +42363,7 @@
       <c r="AI430" s="30"/>
       <c r="AJ430" s="31"/>
     </row>
-    <row r="431" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A431" s="4" t="s">
         <v>2747</v>
       </c>
@@ -42429,7 +42435,7 @@
       <c r="AI431" s="30"/>
       <c r="AJ431" s="31"/>
     </row>
-    <row r="432" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>2755</v>
       </c>
@@ -42483,7 +42489,7 @@
       <c r="AI432" s="30"/>
       <c r="AJ432" s="31"/>
     </row>
-    <row r="433" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A433" s="4" t="s">
         <v>2759</v>
       </c>
@@ -42537,7 +42543,7 @@
       <c r="AI433" s="30"/>
       <c r="AJ433" s="31"/>
     </row>
-    <row r="434" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>2762</v>
       </c>
@@ -42611,7 +42617,7 @@
       <c r="AI434" s="30"/>
       <c r="AJ434" s="31"/>
     </row>
-    <row r="435" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A435" s="4" t="s">
         <v>2768</v>
       </c>
@@ -42683,7 +42689,7 @@
       <c r="AI435" s="30"/>
       <c r="AJ435" s="31"/>
     </row>
-    <row r="436" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>2775</v>
       </c>
@@ -42751,7 +42757,7 @@
       <c r="AI436" s="30"/>
       <c r="AJ436" s="31"/>
     </row>
-    <row r="437" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>2781</v>
       </c>
@@ -42819,7 +42825,7 @@
       <c r="AI437" s="30"/>
       <c r="AJ437" s="31"/>
     </row>
-    <row r="438" spans="1:36" ht="24" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>2785</v>
       </c>
@@ -42887,7 +42893,7 @@
       <c r="AI438" s="30"/>
       <c r="AJ438" s="31"/>
     </row>
-    <row r="439" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:36" ht="121" x14ac:dyDescent="0.2">
       <c r="A439" s="4" t="s">
         <v>2790</v>
       </c>
@@ -42959,7 +42965,7 @@
       <c r="AI439" s="30"/>
       <c r="AJ439" s="31"/>
     </row>
-    <row r="440" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>2795</v>
       </c>
@@ -43031,7 +43037,7 @@
       <c r="AI440" s="30"/>
       <c r="AJ440" s="31"/>
     </row>
-    <row r="441" spans="1:36" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>2800</v>
       </c>
@@ -43101,7 +43107,7 @@
       <c r="AI441" s="30"/>
       <c r="AJ441" s="31"/>
     </row>
-    <row r="442" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>2808</v>
       </c>
@@ -43169,7 +43175,7 @@
       <c r="AI442" s="30"/>
       <c r="AJ442" s="31"/>
     </row>
-    <row r="443" spans="1:36" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:36" ht="110" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>2817</v>
       </c>
@@ -43237,7 +43243,7 @@
       <c r="AI443" s="30"/>
       <c r="AJ443" s="31"/>
     </row>
-    <row r="444" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>2826</v>
       </c>
@@ -43303,7 +43309,7 @@
       <c r="AI444" s="30"/>
       <c r="AJ444" s="31"/>
     </row>
-    <row r="445" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:36" ht="132" x14ac:dyDescent="0.2">
       <c r="A445" s="4" t="s">
         <v>2832</v>
       </c>
@@ -43375,7 +43381,7 @@
       <c r="AI445" s="30"/>
       <c r="AJ445" s="31"/>
     </row>
-    <row r="446" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:36" ht="24" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>2840</v>
       </c>
@@ -43441,7 +43447,7 @@
       <c r="AI446" s="30"/>
       <c r="AJ446" s="31"/>
     </row>
-    <row r="447" spans="1:36" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>2845</v>
       </c>
@@ -43513,7 +43519,7 @@
       <c r="AI447" s="30"/>
       <c r="AJ447" s="31"/>
     </row>
-    <row r="448" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>2851</v>
       </c>
@@ -43593,7 +43599,7 @@
       <c r="AI448" s="30"/>
       <c r="AJ448" s="31"/>
     </row>
-    <row r="449" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A449" s="4" t="s">
         <v>2858</v>
       </c>
@@ -43665,7 +43671,7 @@
       <c r="AI449" s="30"/>
       <c r="AJ449" s="31"/>
     </row>
-    <row r="450" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>2863</v>
       </c>
@@ -43737,7 +43743,7 @@
       <c r="AI450" s="30"/>
       <c r="AJ450" s="31"/>
     </row>
-    <row r="451" spans="1:36" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A451" s="4" t="s">
         <v>2871</v>
       </c>
@@ -43787,7 +43793,7 @@
       <c r="AI451" s="30"/>
       <c r="AJ451" s="31"/>
     </row>
-    <row r="452" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>2874</v>
       </c>
@@ -43857,7 +43863,7 @@
       <c r="AI452" s="30"/>
       <c r="AJ452" s="31"/>
     </row>
-    <row r="453" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A453" s="4" t="s">
         <v>2883</v>
       </c>
@@ -43933,7 +43939,7 @@
       <c r="AI453" s="30"/>
       <c r="AJ453" s="31"/>
     </row>
-    <row r="454" spans="1:36" ht="180" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:36" ht="154" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>2888</v>
       </c>
@@ -44009,7 +44015,7 @@
       <c r="AI454" s="30"/>
       <c r="AJ454" s="31"/>
     </row>
-    <row r="455" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A455" s="4" t="s">
         <v>2893</v>
       </c>
@@ -44083,7 +44089,7 @@
       <c r="AI455" s="30"/>
       <c r="AJ455" s="31"/>
     </row>
-    <row r="456" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>2900</v>
       </c>
@@ -44153,7 +44159,7 @@
       <c r="AI456" s="30"/>
       <c r="AJ456" s="31"/>
     </row>
-    <row r="457" spans="1:36" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:36" ht="88" x14ac:dyDescent="0.2">
       <c r="A457" s="4" t="s">
         <v>2907</v>
       </c>
@@ -44227,7 +44233,7 @@
       <c r="AI457" s="30"/>
       <c r="AJ457" s="31"/>
     </row>
-    <row r="458" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>2913</v>
       </c>
@@ -44299,7 +44305,7 @@
       <c r="AI458" s="30"/>
       <c r="AJ458" s="31"/>
     </row>
-    <row r="459" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A459" s="4" t="s">
         <v>2919</v>
       </c>
@@ -44369,7 +44375,7 @@
       <c r="AI459" s="30"/>
       <c r="AJ459" s="31"/>
     </row>
-    <row r="460" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>2925</v>
       </c>
@@ -44441,7 +44447,7 @@
       <c r="AI460" s="30"/>
       <c r="AJ460" s="31"/>
     </row>
-    <row r="461" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:36" ht="66" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>2928</v>
       </c>
@@ -44507,7 +44513,7 @@
       <c r="AI461" s="30"/>
       <c r="AJ461" s="31"/>
     </row>
-    <row r="462" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:36" ht="44" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>2932</v>
       </c>
@@ -44579,7 +44585,7 @@
       <c r="AI462" s="30"/>
       <c r="AJ462" s="31"/>
     </row>
-    <row r="463" spans="1:36" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A463" s="4" t="s">
         <v>2938</v>
       </c>
@@ -44649,7 +44655,7 @@
       <c r="AI463" s="30"/>
       <c r="AJ463" s="31"/>
     </row>
-    <row r="464" spans="1:36" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:36" ht="55" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>2946</v>
       </c>
@@ -44717,7 +44723,7 @@
       <c r="AI464" s="30"/>
       <c r="AJ464" s="31"/>
     </row>
-    <row r="465" spans="1:36" ht="165" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:36" ht="165" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>2951</v>
       </c>
@@ -44783,7 +44789,7 @@
       <c r="AI465" s="30"/>
       <c r="AJ465" s="31"/>
     </row>
-    <row r="466" spans="1:36" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:36" ht="77" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>2959</v>
       </c>
@@ -44859,7 +44865,7 @@
       <c r="AI466" s="30"/>
       <c r="AJ466" s="31"/>
     </row>
-    <row r="467" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:36" ht="33" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>2967</v>
       </c>
@@ -44929,7 +44935,7 @@
       <c r="AI467" s="30"/>
       <c r="AJ467" s="31"/>
     </row>
-    <row r="468" spans="1:36" ht="120" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:36" ht="105" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>2973</v>
       </c>
@@ -44997,7 +45003,7 @@
       <c r="AI468" s="30"/>
       <c r="AJ468" s="31"/>
     </row>
-    <row r="469" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:36" ht="90" x14ac:dyDescent="0.2">
       <c r="A469" s="104" t="s">
         <v>2982</v>
       </c>
@@ -45067,7 +45073,7 @@
       <c r="AI469" s="30"/>
       <c r="AJ469" s="31"/>
     </row>
-    <row r="470" spans="1:36" ht="315" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:36" ht="270" x14ac:dyDescent="0.2">
       <c r="A470" s="104" t="s">
         <v>2992</v>
       </c>
@@ -45139,7 +45145,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="471" spans="1:36" ht="270" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:36" ht="255" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>3017</v>
       </c>
@@ -45207,7 +45213,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="472" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:36" ht="120" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>3042</v>
       </c>
@@ -45277,7 +45283,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="473" spans="1:36" ht="150" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:36" ht="120" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>3059</v>
       </c>
@@ -45345,33 +45351,33 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="474" spans="1:36" ht="135" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:36" ht="99" x14ac:dyDescent="0.2">
       <c r="A474" s="104" t="s">
         <v>3071</v>
       </c>
-      <c r="B474" s="105" t="s">
+      <c r="B474" s="18" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>3072</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="D474" s="100" t="s">
         <v>3073</v>
       </c>
-      <c r="D474" s="100" t="s">
+      <c r="E474" s="131" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F474" s="132" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G474" s="128" t="s">
         <v>3074</v>
       </c>
-      <c r="E474" s="131" t="s">
+      <c r="H474" s="131" t="s">
         <v>3077</v>
       </c>
-      <c r="F474" s="132" t="s">
-        <v>3076</v>
-      </c>
-      <c r="G474" s="128" t="s">
-        <v>3075</v>
-      </c>
-      <c r="H474" s="131" t="s">
+      <c r="I474" s="129" t="s">
         <v>3078</v>
-      </c>
-      <c r="I474" s="129" t="s">
-        <v>3079</v>
       </c>
       <c r="J474" s="107" t="s">
         <v>1515</v>
@@ -45389,10 +45395,10 @@
       <c r="S474" s="8"/>
       <c r="T474" s="8"/>
       <c r="U474" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="V474" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="W474" s="8"/>
       <c r="X474" s="8"/>
@@ -45401,10 +45407,10 @@
       <c r="AA474" s="8"/>
       <c r="AB474" s="8"/>
       <c r="AC474" s="134" t="s">
+        <v>3081</v>
+      </c>
+      <c r="AD474" s="133" t="s">
         <v>3082</v>
-      </c>
-      <c r="AD474" s="133" t="s">
-        <v>3083</v>
       </c>
       <c r="AE474" s="110"/>
       <c r="AF474" s="110"/>
@@ -45415,7 +45421,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="475" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="18"/>
       <c r="C475" s="19"/>
@@ -45451,7 +45457,7 @@
       <c r="AG475" s="103"/>
       <c r="AH475" s="102"/>
     </row>
-    <row r="476" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="18"/>
       <c r="C476" s="19"/>
@@ -45487,7 +45493,7 @@
       <c r="AG476" s="103"/>
       <c r="AH476" s="102"/>
     </row>
-    <row r="477" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="18"/>
       <c r="C477" s="19"/>
@@ -45523,7 +45529,7 @@
       <c r="AG477" s="103"/>
       <c r="AH477" s="102"/>
     </row>
-    <row r="478" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="18"/>
       <c r="C478" s="19"/>
@@ -45559,7 +45565,7 @@
       <c r="AG478" s="103"/>
       <c r="AH478" s="102"/>
     </row>
-    <row r="479" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="18"/>
       <c r="C479" s="19"/>
@@ -45595,7 +45601,7 @@
       <c r="AG479" s="103"/>
       <c r="AH479" s="102"/>
     </row>
-    <row r="480" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="18"/>
       <c r="C480" s="19"/>
@@ -45631,7 +45637,7 @@
       <c r="AG480" s="103"/>
       <c r="AH480" s="102"/>
     </row>
-    <row r="481" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="18"/>
       <c r="C481" s="19"/>
@@ -45667,7 +45673,7 @@
       <c r="AG481" s="103"/>
       <c r="AH481" s="102"/>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="18"/>
       <c r="C482" s="19"/>
@@ -45703,7 +45709,7 @@
       <c r="AG482" s="103"/>
       <c r="AH482" s="102"/>
     </row>
-    <row r="483" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="18"/>
       <c r="C483" s="19"/>
@@ -45739,7 +45745,7 @@
       <c r="AG483" s="103"/>
       <c r="AH483" s="102"/>
     </row>
-    <row r="484" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="18"/>
       <c r="C484" s="19"/>
@@ -45775,7 +45781,7 @@
       <c r="AG484" s="103"/>
       <c r="AH484" s="102"/>
     </row>
-    <row r="485" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="18"/>
       <c r="C485" s="19"/>
@@ -45811,7 +45817,7 @@
       <c r="AG485" s="103"/>
       <c r="AH485" s="102"/>
     </row>
-    <row r="486" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B486" s="18"/>
       <c r="C486" s="19"/>
       <c r="D486" s="20"/>
@@ -45849,16 +45855,16 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="AI1:AI1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="between">
       <formula>1</formula>
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="between">
       <formula>1</formula>
       <formula>1000</formula>
     </cfRule>
@@ -46529,7 +46535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyslista.xlsx
+++ b/Analyslista.xlsx
@@ -20,7 +20,6 @@
     <definedName name="Komponenter">Analyslista!$AJ$2:INDEX(INDIRECT("KemLab!$U$2:$U"&amp;Analyslista!$AK$2),MAX(INDIRECT("KemLab!$T$2:$T"&amp;Analyslista!$AK$2)),1)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12276,10 +12275,10 @@
   <dimension ref="A1:AM486"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomRight" activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21808,7 +21807,7 @@
       <c r="O136" s="37"/>
       <c r="P136" s="37"/>
       <c r="Q136" s="37"/>
-      <c r="R136" s="19" t="s">
+      <c r="R136" s="23" t="s">
         <v>3063</v>
       </c>
       <c r="S136" s="19"/>
